--- a/Base.xlsx
+++ b/Base.xlsx
@@ -585,7 +585,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,7 +653,7 @@
   <autoFilter ref="A1:E1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{70CAFE08-6A16-4CDB-967D-D6D893EE6A58}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{834EC421-E264-4C87-A999-893F43D2E480}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Base.xlsx
+++ b/Base.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UAPA Equipo 02\Desktop\CvLAC-Complete\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCsito\Desktop\CvLAC-Complete\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1735B5-3BB1-4EC9-BD77-8AF32AF1DEC8}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Documento</t>
   </si>
@@ -68,6 +69,15 @@
   </si>
   <si>
     <t>Departamento de Ingeniería Eléctrica y Electrónica</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000439185</t>
+  </si>
+  <si>
+    <t>Wilson</t>
+  </si>
+  <si>
+    <t>Adarme</t>
   </si>
 </sst>
 </file>
@@ -159,7 +169,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -170,6 +180,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Explanatory Text" xfId="2" builtinId="53" customBuiltin="1"/>
@@ -582,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,18 +645,35 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>321</v>
+        <v>456</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>321</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -653,7 +681,8 @@
   <autoFilter ref="A1:E1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{834EC421-E264-4C87-A999-893F43D2E480}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{834EC421-E264-4C87-A999-893F43D2E480}"/>
+    <hyperlink ref="E3" r:id="rId3" xr:uid="{5BE6EEC7-5619-4DD1-A624-5FAE0E9D15EE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Base.xlsx
+++ b/Base.xlsx
@@ -1,14 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCsito\Desktop\CvLAC-Complete\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UAPA Equipo 02\Desktop\CvLAC-Complete\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1735B5-3BB1-4EC9-BD77-8AF32AF1DEC8}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +19,7 @@
     <definedName name="CORREO">#REF!</definedName>
     <definedName name="Nombre">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="1064">
   <si>
     <t>Documento</t>
   </si>
@@ -50,34 +49,3178 @@
     <t>Manuel</t>
   </si>
   <si>
-    <t>Embus</t>
-  </si>
-  <si>
-    <t>Departamento de Ingeniería de Sistemas e Industrial</t>
-  </si>
-  <si>
     <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000228958</t>
   </si>
   <si>
-    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001545295</t>
-  </si>
-  <si>
-    <t>Fransico</t>
-  </si>
-  <si>
-    <t>Roman</t>
-  </si>
-  <si>
-    <t>Departamento de Ingeniería Eléctrica y Electrónica</t>
-  </si>
-  <si>
     <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000439185</t>
   </si>
   <si>
     <t>Wilson</t>
   </si>
   <si>
-    <t>Adarme</t>
+    <t>Eliana</t>
+  </si>
+  <si>
+    <t>Lozano Romero</t>
+  </si>
+  <si>
+    <t>Camilo Antonio</t>
+  </si>
+  <si>
+    <t>Monroy Peña</t>
+  </si>
+  <si>
+    <t>Luis Miguel</t>
+  </si>
+  <si>
+    <t>Serrano Bermudez</t>
+  </si>
+  <si>
+    <t>Gerson Andres</t>
+  </si>
+  <si>
+    <t>Rodriguez Rodriguez</t>
+  </si>
+  <si>
+    <t>Edwin Alexander</t>
+  </si>
+  <si>
+    <t>Ramirez Perez</t>
+  </si>
+  <si>
+    <t>Oscar Libardo</t>
+  </si>
+  <si>
+    <t>Lombana Charfuelan</t>
+  </si>
+  <si>
+    <t>Alfonso</t>
+  </si>
+  <si>
+    <t>Martinez Andrade</t>
+  </si>
+  <si>
+    <t>German Andres</t>
+  </si>
+  <si>
+    <t>Cabrera Rojas</t>
+  </si>
+  <si>
+    <t>Jaime Leon</t>
+  </si>
+  <si>
+    <t>Aguilar Arias</t>
+  </si>
+  <si>
+    <t>Luis Carlos</t>
+  </si>
+  <si>
+    <t>Belalcazar Ceron</t>
+  </si>
+  <si>
+    <t>Jose Herney</t>
+  </si>
+  <si>
+    <t>Ramirez Franco</t>
+  </si>
+  <si>
+    <t>Rodrigo</t>
+  </si>
+  <si>
+    <t>Jimenez Pizarro</t>
+  </si>
+  <si>
+    <t>Marcelo Enrique</t>
+  </si>
+  <si>
+    <t>Riveros Rojas</t>
+  </si>
+  <si>
+    <t>Armando</t>
+  </si>
+  <si>
+    <t>Espinosa Hernandez</t>
+  </si>
+  <si>
+    <t>Luis Francisco</t>
+  </si>
+  <si>
+    <t>Boada Eslava</t>
+  </si>
+  <si>
+    <t>Carlos Alberto</t>
+  </si>
+  <si>
+    <t>Garzon Gaitan</t>
+  </si>
+  <si>
+    <t>Leonardo Emilio</t>
+  </si>
+  <si>
+    <t>Calle Paez</t>
+  </si>
+  <si>
+    <t>Mario Enrique</t>
+  </si>
+  <si>
+    <t>Velasquez Lozano</t>
+  </si>
+  <si>
+    <t>Hector Armando</t>
+  </si>
+  <si>
+    <t>Duran Peralta</t>
+  </si>
+  <si>
+    <t>Luis Alejandro</t>
+  </si>
+  <si>
+    <t>Boyaca Mendivelso</t>
+  </si>
+  <si>
+    <t>Gerardo</t>
+  </si>
+  <si>
+    <t>Rodriguez Nino</t>
+  </si>
+  <si>
+    <t>Gabriel De Jesus</t>
+  </si>
+  <si>
+    <t>Camargo Vargas</t>
+  </si>
+  <si>
+    <t>Luz Dary</t>
+  </si>
+  <si>
+    <t>Carreno Pineda</t>
+  </si>
+  <si>
+    <t>Luis Ignacio</t>
+  </si>
+  <si>
+    <t>Rodriguez Varela</t>
+  </si>
+  <si>
+    <t>Astrid Del Socorro</t>
+  </si>
+  <si>
+    <t>Altamar Consuegra</t>
+  </si>
+  <si>
+    <t>Maria Eugenia</t>
+  </si>
+  <si>
+    <t>Calderon</t>
+  </si>
+  <si>
+    <t>Lina Maria</t>
+  </si>
+  <si>
+    <t>Chacon Rivera</t>
+  </si>
+  <si>
+    <t>Alix Yovanna</t>
+  </si>
+  <si>
+    <t>Pataquiva Mateus</t>
+  </si>
+  <si>
+    <t>Ruth</t>
+  </si>
+  <si>
+    <t>Lancheros</t>
+  </si>
+  <si>
+    <t>Diana Elizabeth</t>
+  </si>
+  <si>
+    <t>Romero Tobar</t>
+  </si>
+  <si>
+    <t>Angela Aurora</t>
+  </si>
+  <si>
+    <t>Beltran Osuna</t>
+  </si>
+  <si>
+    <t>Jennifer Lorena</t>
+  </si>
+  <si>
+    <t>Gil Coba</t>
+  </si>
+  <si>
+    <t>Adriana</t>
+  </si>
+  <si>
+    <t>Suesca Diaz</t>
+  </si>
+  <si>
+    <t>Castro Moreno</t>
+  </si>
+  <si>
+    <t>Cesar Augusto</t>
+  </si>
+  <si>
+    <t>Sanchez Correa</t>
+  </si>
+  <si>
+    <t>Mario Andres</t>
+  </si>
+  <si>
+    <t>Noriega Valencia</t>
+  </si>
+  <si>
+    <t>Oscar Javier</t>
+  </si>
+  <si>
+    <t>Suarez Medina</t>
+  </si>
+  <si>
+    <t>Juan Guillermo</t>
+  </si>
+  <si>
+    <t>Cadavid Estrada</t>
+  </si>
+  <si>
+    <t>Nestor</t>
+  </si>
+  <si>
+    <t>Algecira Enciso</t>
+  </si>
+  <si>
+    <t>Jairo Ernesto</t>
+  </si>
+  <si>
+    <t>Perilla Perilla</t>
+  </si>
+  <si>
+    <t>Ruben Dario</t>
+  </si>
+  <si>
+    <t>Godoy Silva</t>
+  </si>
+  <si>
+    <t>Nestor Yezid</t>
+  </si>
+  <si>
+    <t>Rojas Roa</t>
+  </si>
+  <si>
+    <t>Joaquin Enrique</t>
+  </si>
+  <si>
+    <t>Tirano Vanegas</t>
+  </si>
+  <si>
+    <t>Paulo Cesar</t>
+  </si>
+  <si>
+    <t>Narvaez Rincon</t>
+  </si>
+  <si>
+    <t>Hugo Ricardo</t>
+  </si>
+  <si>
+    <t>Zea Ramirez</t>
+  </si>
+  <si>
+    <t>Julio Cesar</t>
+  </si>
+  <si>
+    <t>Fernando Eduardo</t>
+  </si>
+  <si>
+    <t>Leyva Lenis</t>
+  </si>
+  <si>
+    <t>Alvaro</t>
+  </si>
+  <si>
+    <t>Orjuela Londono</t>
+  </si>
+  <si>
+    <t>Juan Carlos</t>
+  </si>
+  <si>
+    <t>Serrato Bermudez</t>
+  </si>
+  <si>
+    <t>Ivan Dario</t>
+  </si>
+  <si>
+    <t>Gil Chaves</t>
+  </si>
+  <si>
+    <t>Gustavo Alonso</t>
+  </si>
+  <si>
+    <t>Restrepo Mongui</t>
+  </si>
+  <si>
+    <t>Oscar Yesid</t>
+  </si>
+  <si>
+    <t>Suarez Palacios</t>
+  </si>
+  <si>
+    <t>Alejandro Amadeus</t>
+  </si>
+  <si>
+    <t>Castro Vega</t>
+  </si>
+  <si>
+    <t>Camilo Andres</t>
+  </si>
+  <si>
+    <t>Lopez Santamaria</t>
+  </si>
+  <si>
+    <t>Juan Pablo</t>
+  </si>
+  <si>
+    <t>Ortiz Rosas</t>
+  </si>
+  <si>
+    <t>Hugo Martin</t>
+  </si>
+  <si>
+    <t>Galindo Valbuena</t>
+  </si>
+  <si>
+    <t>Andres Ricardo</t>
+  </si>
+  <si>
+    <t>Garcia Soto</t>
+  </si>
+  <si>
+    <t>Carlos Arturo</t>
+  </si>
+  <si>
+    <t>Martinez Riascos</t>
+  </si>
+  <si>
+    <t>Jaime</t>
+  </si>
+  <si>
+    <t>Arturo Calvache</t>
+  </si>
+  <si>
+    <t>Luis Fernando</t>
+  </si>
+  <si>
+    <t>Cordoba Castrillon</t>
+  </si>
+  <si>
+    <t>Romero Millan</t>
+  </si>
+  <si>
+    <t>Andres Orlando</t>
+  </si>
+  <si>
+    <t>Garzon Posada</t>
+  </si>
+  <si>
+    <t>Carlos Andres</t>
+  </si>
+  <si>
+    <t>Forero Nuñez</t>
+  </si>
+  <si>
+    <t>Juan Jairo</t>
+  </si>
+  <si>
+    <t>Vaca González</t>
+  </si>
+  <si>
+    <t>Pedro Julian</t>
+  </si>
+  <si>
+    <t>Garcia Guarin</t>
+  </si>
+  <si>
+    <t>Giovanni</t>
+  </si>
+  <si>
+    <t>Kalenia Maria</t>
+  </si>
+  <si>
+    <t>Marquez Florez</t>
+  </si>
+  <si>
+    <t>Hector</t>
+  </si>
+  <si>
+    <t>Ernesto</t>
+  </si>
+  <si>
+    <t>Cordoba Nieto</t>
+  </si>
+  <si>
+    <t>Oscar Edwin</t>
+  </si>
+  <si>
+    <t>Piamba Tulcan</t>
+  </si>
+  <si>
+    <t>Gustavo</t>
+  </si>
+  <si>
+    <t>Basto Ospina</t>
+  </si>
+  <si>
+    <t>Alexander</t>
+  </si>
+  <si>
+    <t>Gomez Mejia</t>
+  </si>
+  <si>
+    <t>Jorge Eliecer</t>
+  </si>
+  <si>
+    <t>Luis Eduardo</t>
+  </si>
+  <si>
+    <t>Benitez Hernandez</t>
+  </si>
+  <si>
+    <t>Carlos Tito</t>
+  </si>
+  <si>
+    <t>Vega Gutierrez</t>
+  </si>
+  <si>
+    <t>Alvaro Alberto</t>
+  </si>
+  <si>
+    <t>Mendoza Garzon</t>
+  </si>
+  <si>
+    <t>Miguel Angel</t>
+  </si>
+  <si>
+    <t>Gabriel</t>
+  </si>
+  <si>
+    <t>Juan Edilberto</t>
+  </si>
+  <si>
+    <t>Rincon Pardo</t>
+  </si>
+  <si>
+    <t>Abel Orlando</t>
+  </si>
+  <si>
+    <t>Paredes Gonzalez</t>
+  </si>
+  <si>
+    <t>Victor Hugo</t>
+  </si>
+  <si>
+    <t>Grisales Palacio</t>
+  </si>
+  <si>
+    <t>Ricardo</t>
+  </si>
+  <si>
+    <t>Nelson</t>
+  </si>
+  <si>
+    <t>Arzola De La Peña</t>
+  </si>
+  <si>
+    <t>Liz Karen</t>
+  </si>
+  <si>
+    <t>Herrera Quintero</t>
+  </si>
+  <si>
+    <t>Irma</t>
+  </si>
+  <si>
+    <t>Angarita Moncaleano</t>
+  </si>
+  <si>
+    <t>Claudia Marcela</t>
+  </si>
+  <si>
+    <t>Sanchez Rodriguez</t>
+  </si>
+  <si>
+    <t>Sonia Lucia</t>
+  </si>
+  <si>
+    <t>Rincon Prat</t>
+  </si>
+  <si>
+    <t>Maria Alejandra</t>
+  </si>
+  <si>
+    <t>Guzman Pardo</t>
+  </si>
+  <si>
+    <t>Helia Bibiana</t>
+  </si>
+  <si>
+    <t>Leon Molina</t>
+  </si>
+  <si>
+    <t>Diana Carolina</t>
+  </si>
+  <si>
+    <t>Guio Perez</t>
+  </si>
+  <si>
+    <t>Leonel</t>
+  </si>
+  <si>
+    <t>Fernando José</t>
+  </si>
+  <si>
+    <t>Rodríguez Mesa</t>
+  </si>
+  <si>
+    <t>Pedro Fabian</t>
+  </si>
+  <si>
+    <t>Cardenas Herrera</t>
+  </si>
+  <si>
+    <t>Jose Manuel</t>
+  </si>
+  <si>
+    <t>Arroyo Osorio</t>
+  </si>
+  <si>
+    <t>Ricardo Emiro</t>
+  </si>
+  <si>
+    <t>Ramirez Heredia</t>
+  </si>
+  <si>
+    <t>Fredy Alejandro</t>
+  </si>
+  <si>
+    <t>Orjuela Guerrero</t>
+  </si>
+  <si>
+    <t>Carlos Julio</t>
+  </si>
+  <si>
+    <t>Amezquita Pulido</t>
+  </si>
+  <si>
+    <t>Fabio Emiro</t>
+  </si>
+  <si>
+    <t>Sierra Vargas</t>
+  </si>
+  <si>
+    <t>Flavio Augusto</t>
+  </si>
+  <si>
+    <t>Prieto Ortiz</t>
+  </si>
+  <si>
+    <t>Oscar</t>
+  </si>
+  <si>
+    <t>Mendez Moreno</t>
+  </si>
+  <si>
+    <t>Nelson Orlando</t>
+  </si>
+  <si>
+    <t>Cogua Bohorquez</t>
+  </si>
+  <si>
+    <t>Ricardo Alberto</t>
+  </si>
+  <si>
+    <t>Forero Rubiano</t>
+  </si>
+  <si>
+    <t>Mahecha Godoy</t>
+  </si>
+  <si>
+    <t>Diego Alexander</t>
+  </si>
+  <si>
+    <t>Nicolás</t>
+  </si>
+  <si>
+    <t>Giraldo Peralta</t>
+  </si>
+  <si>
+    <t>Juan Manuel</t>
+  </si>
+  <si>
+    <t>Edgar</t>
+  </si>
+  <si>
+    <t>Duque Daza</t>
+  </si>
+  <si>
+    <t>Jhon Jairo</t>
+  </si>
+  <si>
+    <t>Olaya Florez</t>
+  </si>
+  <si>
+    <t>Ariel Augusto</t>
+  </si>
+  <si>
+    <t>Amaya Avila</t>
+  </si>
+  <si>
+    <t>Jorge Ivan</t>
+  </si>
+  <si>
+    <t>Sofrony Esmeral</t>
+  </si>
+  <si>
+    <t>Henry Octavio</t>
+  </si>
+  <si>
+    <t>Cortes Ramos</t>
+  </si>
+  <si>
+    <t>Jair Leopoldo</t>
+  </si>
+  <si>
+    <t>Loaiza Bernal</t>
+  </si>
+  <si>
+    <t>Rodriguez Montaño</t>
+  </si>
+  <si>
+    <t>Oscar Daniel</t>
+  </si>
+  <si>
+    <t>Sanchez Plazas</t>
+  </si>
+  <si>
+    <t>Erwing</t>
+  </si>
+  <si>
+    <t>Zambrano Martinez</t>
+  </si>
+  <si>
+    <t>Juan Miguel</t>
+  </si>
+  <si>
+    <t>Mantilla</t>
+  </si>
+  <si>
+    <t>Jorge Eduardo</t>
+  </si>
+  <si>
+    <t>Carlos Humberto</t>
+  </si>
+  <si>
+    <t>Galeano</t>
+  </si>
+  <si>
+    <t>Mauricio</t>
+  </si>
+  <si>
+    <t>Henry Camilo</t>
+  </si>
+  <si>
+    <t>Torres Valderrama</t>
+  </si>
+  <si>
+    <t>Cristian Andres</t>
+  </si>
+  <si>
+    <t>Triana Infante</t>
+  </si>
+  <si>
+    <t>Rafael Ricardo</t>
+  </si>
+  <si>
+    <t>Avila Naranjo</t>
+  </si>
+  <si>
+    <t>Jonnathan Steve</t>
+  </si>
+  <si>
+    <t>Tarquino Gonzalez</t>
+  </si>
+  <si>
+    <t>Mario Julian</t>
+  </si>
+  <si>
+    <t>Cañon Ayala</t>
+  </si>
+  <si>
+    <t>Jair Farouk</t>
+  </si>
+  <si>
+    <t>Ladino Montenegro</t>
+  </si>
+  <si>
+    <t>John Jairo</t>
+  </si>
+  <si>
+    <t>Pantoja Acosta</t>
+  </si>
+  <si>
+    <t>Juan Fernando</t>
+  </si>
+  <si>
+    <t>Coronel Rico</t>
+  </si>
+  <si>
+    <t>Tibaduiza Burgos</t>
+  </si>
+  <si>
+    <t>Antonio Josue</t>
+  </si>
+  <si>
+    <t>Pablo Enrique</t>
+  </si>
+  <si>
+    <t>Rodriguez Espinosa</t>
+  </si>
+  <si>
+    <t>Francisco Jose</t>
+  </si>
+  <si>
+    <t>Roman Campos</t>
+  </si>
+  <si>
+    <t>Antonio Jose</t>
+  </si>
+  <si>
+    <t>Mejia Umaña</t>
+  </si>
+  <si>
+    <t>Hernando</t>
+  </si>
+  <si>
+    <t>Diaz Morales</t>
+  </si>
+  <si>
+    <t>Perilla Galindo</t>
+  </si>
+  <si>
+    <t>Isaza Ruget</t>
+  </si>
+  <si>
+    <t>Ivan</t>
+  </si>
+  <si>
+    <t>Jaramillo Jaramillo</t>
+  </si>
+  <si>
+    <t>Francisco Javier</t>
+  </si>
+  <si>
+    <t>Amortegui Gil</t>
+  </si>
+  <si>
+    <t>Fernando Augusto</t>
+  </si>
+  <si>
+    <t>Herrera Leon</t>
+  </si>
+  <si>
+    <t>Aleman Casas</t>
+  </si>
+  <si>
+    <t>Estrella Esperanza</t>
+  </si>
+  <si>
+    <t>Parra Lopez</t>
+  </si>
+  <si>
+    <t>Sandra Milena</t>
+  </si>
+  <si>
+    <t>Tellez Gutierrez</t>
+  </si>
+  <si>
+    <t>Gloria Margarita</t>
+  </si>
+  <si>
+    <t>Varon Duran</t>
+  </si>
+  <si>
+    <t>Adriana Carolina</t>
+  </si>
+  <si>
+    <t>Luna Hernandez</t>
+  </si>
+  <si>
+    <t>Fanny Andrea</t>
+  </si>
+  <si>
+    <t>Rojas Florez</t>
+  </si>
+  <si>
+    <t>Leonardo Enrique</t>
+  </si>
+  <si>
+    <t>Bermeo Clavijo</t>
+  </si>
+  <si>
+    <t>Blas</t>
+  </si>
+  <si>
+    <t>Morales Quintana</t>
+  </si>
+  <si>
+    <t>Oscar Ricardo</t>
+  </si>
+  <si>
+    <t>Montero Tovar</t>
+  </si>
+  <si>
+    <t>Ramirez Echeverry</t>
+  </si>
+  <si>
+    <t>Henrry</t>
+  </si>
+  <si>
+    <t>Moreno Mosquera</t>
+  </si>
+  <si>
+    <t>Oscar German</t>
+  </si>
+  <si>
+    <t>Duarte Velasco</t>
+  </si>
+  <si>
+    <t>Diego Mauricio</t>
+  </si>
+  <si>
+    <t>Acero Soto</t>
+  </si>
+  <si>
+    <t>Jose Felix</t>
+  </si>
+  <si>
+    <t>Vega Stavro</t>
+  </si>
+  <si>
+    <t>Jhon Alexander</t>
+  </si>
+  <si>
+    <t>Cortes Romero</t>
+  </si>
+  <si>
+    <t>Carlos Ivan</t>
+  </si>
+  <si>
+    <t>Camargo Bareño</t>
+  </si>
+  <si>
+    <t>Ramos Fuentes</t>
+  </si>
+  <si>
+    <t>Rene Alexander</t>
+  </si>
+  <si>
+    <t>Soto Perez</t>
+  </si>
+  <si>
+    <t>Perilla Rozo</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Bacca Rodriguez</t>
+  </si>
+  <si>
+    <t>Cortes Guerrero</t>
+  </si>
+  <si>
+    <t>Johan Sebastian</t>
+  </si>
+  <si>
+    <t>Eslava Garzon</t>
+  </si>
+  <si>
+    <t>Giovanny Aldemar</t>
+  </si>
+  <si>
+    <t>Baquero Rozo</t>
+  </si>
+  <si>
+    <t>Vega Albarracin</t>
+  </si>
+  <si>
+    <t>Gallego Vega</t>
+  </si>
+  <si>
+    <t>Sergio Raul</t>
+  </si>
+  <si>
+    <t>Rivera Rodriguez</t>
+  </si>
+  <si>
+    <t>Javier Leonardo</t>
+  </si>
+  <si>
+    <t>Araque Quijano</t>
+  </si>
+  <si>
+    <t>Jose Guillermo</t>
+  </si>
+  <si>
+    <t>Guarnizo Marin</t>
+  </si>
+  <si>
+    <t>Chica Pedraza</t>
+  </si>
+  <si>
+    <t>Bastidas Alvear</t>
+  </si>
+  <si>
+    <t>Harvey David</t>
+  </si>
+  <si>
+    <t>Rojas Cubides</t>
+  </si>
+  <si>
+    <t>Fredy Andres</t>
+  </si>
+  <si>
+    <t>Olarte Dussan</t>
+  </si>
+  <si>
+    <t>Ferney Alberto</t>
+  </si>
+  <si>
+    <t>Beltran Molina</t>
+  </si>
+  <si>
+    <t>Diego Fernando</t>
+  </si>
+  <si>
+    <t>Camilo</t>
+  </si>
+  <si>
+    <t>Quintero Montano</t>
+  </si>
+  <si>
+    <t>Jesus Maria</t>
+  </si>
+  <si>
+    <t>Quintero Quintero</t>
+  </si>
+  <si>
+    <t>Danny</t>
+  </si>
+  <si>
+    <t>Sierra González</t>
+  </si>
+  <si>
+    <t>Carlos Eduardo</t>
+  </si>
+  <si>
+    <t>Sanchez Diaz</t>
+  </si>
+  <si>
+    <t>Eduardo Alirio</t>
+  </si>
+  <si>
+    <t>Mojica Nava</t>
+  </si>
+  <si>
+    <t>German Ramon</t>
+  </si>
+  <si>
+    <t>Corredor Avella</t>
+  </si>
+  <si>
+    <t>Omar Fredy</t>
+  </si>
+  <si>
+    <t>Prias Caicedo</t>
+  </si>
+  <si>
+    <t>Javier Alveiro</t>
+  </si>
+  <si>
+    <t>Rosero Garcia</t>
+  </si>
+  <si>
+    <t>Fabio Andres</t>
+  </si>
+  <si>
+    <t>Pavas Martinez</t>
+  </si>
+  <si>
+    <t>Andres Mauricio</t>
+  </si>
+  <si>
+    <t>Martinez Castro</t>
+  </si>
+  <si>
+    <t>Jeisson Andrés</t>
+  </si>
+  <si>
+    <t>Vergara Vargas</t>
+  </si>
+  <si>
+    <t>Tania Andrea</t>
+  </si>
+  <si>
+    <t>Rodriguez Quiñones</t>
+  </si>
+  <si>
+    <t>Juan David</t>
+  </si>
+  <si>
+    <t>Reina Rozo</t>
+  </si>
+  <si>
+    <t>Angelica Liliana</t>
+  </si>
+  <si>
+    <t>Molina Soler</t>
+  </si>
+  <si>
+    <t>Nelcy Rocio</t>
+  </si>
+  <si>
+    <t>Escobar Moreno</t>
+  </si>
+  <si>
+    <t>Osman Benjamin Giovanny</t>
+  </si>
+  <si>
+    <t>Vargas Rozo</t>
+  </si>
+  <si>
+    <t>Laura Vanessa</t>
+  </si>
+  <si>
+    <t>Palacios Arguello</t>
+  </si>
+  <si>
+    <t>Castrellon Torres</t>
+  </si>
+  <si>
+    <t>Jose Daniel</t>
+  </si>
+  <si>
+    <t>Castiblanco Cruz</t>
+  </si>
+  <si>
+    <t>Suarez Moreno</t>
+  </si>
+  <si>
+    <t>Gabriel Jose</t>
+  </si>
+  <si>
+    <t>Mañana Guichon</t>
+  </si>
+  <si>
+    <t>Yury Yineth</t>
+  </si>
+  <si>
+    <t>Niño Roa</t>
+  </si>
+  <si>
+    <t>Ismael Santiago</t>
+  </si>
+  <si>
+    <t>Mejia Salazar</t>
+  </si>
+  <si>
+    <t>Mateo</t>
+  </si>
+  <si>
+    <t>Pachon Rincon</t>
+  </si>
+  <si>
+    <t>Alexei Gabriel</t>
+  </si>
+  <si>
+    <t>Ochoa Duarte</t>
+  </si>
+  <si>
+    <t>Jairo Hernan</t>
+  </si>
+  <si>
+    <t>Aponte Melo</t>
+  </si>
+  <si>
+    <t>Gustavo Alfredo</t>
+  </si>
+  <si>
+    <t>Bula</t>
+  </si>
+  <si>
+    <t>Hernandez Losada</t>
+  </si>
+  <si>
+    <t>Luis Gerardo</t>
+  </si>
+  <si>
+    <t>Astaiza Amado</t>
+  </si>
+  <si>
+    <t>Fernando</t>
+  </si>
+  <si>
+    <t>Jose Jesus Fernando</t>
+  </si>
+  <si>
+    <t>Martinez Paez</t>
+  </si>
+  <si>
+    <t>Torres Soler</t>
+  </si>
+  <si>
+    <t>Ismael</t>
+  </si>
+  <si>
+    <t>Castañeda Fuentes</t>
+  </si>
+  <si>
+    <t>Guzman Castro</t>
+  </si>
+  <si>
+    <t>Miguel Ramon</t>
+  </si>
+  <si>
+    <t>Ortegon Gutierrez</t>
+  </si>
+  <si>
+    <t>Cañon Rodriguez</t>
+  </si>
+  <si>
+    <t>Tito</t>
+  </si>
+  <si>
+    <t>Florez Calderon</t>
+  </si>
+  <si>
+    <t>Hernando Josué</t>
+  </si>
+  <si>
+    <t>Peña Villamil</t>
+  </si>
+  <si>
+    <t>Hugo Alberto</t>
+  </si>
+  <si>
+    <t>Herrera Fonseca</t>
+  </si>
+  <si>
+    <t>Oswaldo</t>
+  </si>
+  <si>
+    <t>Rojas Camacho</t>
+  </si>
+  <si>
+    <t>Pedro Agustin</t>
+  </si>
+  <si>
+    <t>Perez Torres</t>
+  </si>
+  <si>
+    <t>Carlos Hernan</t>
+  </si>
+  <si>
+    <t>Caicedo Escobar</t>
+  </si>
+  <si>
+    <t>Cifuentes Aya</t>
+  </si>
+  <si>
+    <t>Javier Francisco</t>
+  </si>
+  <si>
+    <t>Lopez Parra</t>
+  </si>
+  <si>
+    <t>Oscar Antonio</t>
+  </si>
+  <si>
+    <t>Vaca Velandia</t>
+  </si>
+  <si>
+    <t>Christian Johannes</t>
+  </si>
+  <si>
+    <t>Bruszies</t>
+  </si>
+  <si>
+    <t>Sonia Esperanza</t>
+  </si>
+  <si>
+    <t>Monroy Varela</t>
+  </si>
+  <si>
+    <t>Sandra Liliana</t>
+  </si>
+  <si>
+    <t>Rojas Martinez</t>
+  </si>
+  <si>
+    <t>Rosalba</t>
+  </si>
+  <si>
+    <t>Frias Navarro</t>
+  </si>
+  <si>
+    <t>Helga</t>
+  </si>
+  <si>
+    <t>Duarte</t>
+  </si>
+  <si>
+    <t>Luz Jannette</t>
+  </si>
+  <si>
+    <t>Quintero Campos</t>
+  </si>
+  <si>
+    <t>Ingrid Patricia</t>
+  </si>
+  <si>
+    <t>Paez Parra</t>
+  </si>
+  <si>
+    <t>Libia Denise</t>
+  </si>
+  <si>
+    <t>Cangrejo Aljure</t>
+  </si>
+  <si>
+    <t>Jenny Marcela</t>
+  </si>
+  <si>
+    <t>Sanchez Torres</t>
+  </si>
+  <si>
+    <t>Nubia Rocio</t>
+  </si>
+  <si>
+    <t>Sanchez Martinez</t>
+  </si>
+  <si>
+    <t>Maria Teresa</t>
+  </si>
+  <si>
+    <t>Rodriguez Villabona</t>
+  </si>
+  <si>
+    <t>Elizabeth</t>
+  </si>
+  <si>
+    <t>Leon Guzman</t>
+  </si>
+  <si>
+    <t>Jasmin</t>
+  </si>
+  <si>
+    <t>Garcia Pineros</t>
+  </si>
+  <si>
+    <t>Evelyn Ivonne</t>
+  </si>
+  <si>
+    <t>Diaz Montaño</t>
+  </si>
+  <si>
+    <t>Dennis Elizabeth</t>
+  </si>
+  <si>
+    <t>Jara Diaz</t>
+  </si>
+  <si>
+    <t>Dayana Beatriz</t>
+  </si>
+  <si>
+    <t>Carmona Garcia</t>
+  </si>
+  <si>
+    <t>Sandra Lorena</t>
+  </si>
+  <si>
+    <t>Fonseca Rodriguez</t>
+  </si>
+  <si>
+    <t>Aida Mayerly</t>
+  </si>
+  <si>
+    <t>Fuquene Montañez</t>
+  </si>
+  <si>
+    <t>Ludy Cristina</t>
+  </si>
+  <si>
+    <t>Pabon Baquero</t>
+  </si>
+  <si>
+    <t>Carlos Gustavo</t>
+  </si>
+  <si>
+    <t>Infante Sepulveda</t>
+  </si>
+  <si>
+    <t>Jose Ismael</t>
+  </si>
+  <si>
+    <t>Peña Reyes</t>
+  </si>
+  <si>
+    <t>Marco Emilio</t>
+  </si>
+  <si>
+    <t>Sánchez Acevedo</t>
+  </si>
+  <si>
+    <t>Aldana Bernal</t>
+  </si>
+  <si>
+    <t>Mario Alberto</t>
+  </si>
+  <si>
+    <t>Perez Rodriguez</t>
+  </si>
+  <si>
+    <t>German Jairo</t>
+  </si>
+  <si>
+    <t>Hernandez Perez</t>
+  </si>
+  <si>
+    <t>Orlando</t>
+  </si>
+  <si>
+    <t>Tarazona Morales</t>
+  </si>
+  <si>
+    <t>Niño Vasquez</t>
+  </si>
+  <si>
+    <t>Oscar Fernando</t>
+  </si>
+  <si>
+    <t>Castellanos Dominguez</t>
+  </si>
+  <si>
+    <t>Machado Daza</t>
+  </si>
+  <si>
+    <t>Jose Antonio</t>
+  </si>
+  <si>
+    <t>Mesa Reyes</t>
+  </si>
+  <si>
+    <t>Camacho Tamayo</t>
+  </si>
+  <si>
+    <t>Octavio Jose</t>
+  </si>
+  <si>
+    <t>Salcedo Parra</t>
+  </si>
+  <si>
+    <t>Ortiz Trivino</t>
+  </si>
+  <si>
+    <t>Felix Antonio</t>
+  </si>
+  <si>
+    <t>Cortes Aldana</t>
+  </si>
+  <si>
+    <t>Andres</t>
+  </si>
+  <si>
+    <t>Jonatan</t>
+  </si>
+  <si>
+    <t>Gomez Perdomo</t>
+  </si>
+  <si>
+    <t>Jean Pierre</t>
+  </si>
+  <si>
+    <t>Charalambos Hernandez</t>
+  </si>
+  <si>
+    <t>Edgar Miguel</t>
+  </si>
+  <si>
+    <t>Vargas Chaparro</t>
+  </si>
+  <si>
+    <t>Lozano Piedrahita</t>
+  </si>
+  <si>
+    <t>Helien</t>
+  </si>
+  <si>
+    <t>Parra Riveros</t>
+  </si>
+  <si>
+    <t>Muñoz Puerta</t>
+  </si>
+  <si>
+    <t>Camargo Mendoza</t>
+  </si>
+  <si>
+    <t>Holman Mauricio</t>
+  </si>
+  <si>
+    <t>Albarracin Pinzon</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Restrepo Montoya</t>
+  </si>
+  <si>
+    <t>Alejandro</t>
+  </si>
+  <si>
+    <t>Perez Florez</t>
+  </si>
+  <si>
+    <t>Escamilla Mejia</t>
+  </si>
+  <si>
+    <t>Jair Eduardo</t>
+  </si>
+  <si>
+    <t>Rocha Gonzalez</t>
+  </si>
+  <si>
+    <t>Zamora Aguas</t>
+  </si>
+  <si>
+    <t>Pedraza Bonilla</t>
+  </si>
+  <si>
+    <t>Hernan Gustavo</t>
+  </si>
+  <si>
+    <t>Cortes Mora</t>
+  </si>
+  <si>
+    <t>Cardenas Barbosa</t>
+  </si>
+  <si>
+    <t>Cubides Gonzalez</t>
+  </si>
+  <si>
+    <t>Daniel Antonio</t>
+  </si>
+  <si>
+    <t>Aguilera Bulla</t>
+  </si>
+  <si>
+    <t>Javier Ricardo</t>
+  </si>
+  <si>
+    <t>Ojeda Sanchez</t>
+  </si>
+  <si>
+    <t>Edwin Camilo</t>
+  </si>
+  <si>
+    <t>Cubides Garzon</t>
+  </si>
+  <si>
+    <t>Heiller</t>
+  </si>
+  <si>
+    <t>Zarate Arbelaez</t>
+  </si>
+  <si>
+    <t>William Adolfo</t>
+  </si>
+  <si>
+    <t>Chamorro Coral</t>
+  </si>
+  <si>
+    <t>Agudelo Rojas</t>
+  </si>
+  <si>
+    <t>Carlos German</t>
+  </si>
+  <si>
+    <t>Sandoval Forero</t>
+  </si>
+  <si>
+    <t>Mario</t>
+  </si>
+  <si>
+    <t>Linares Vasquez</t>
+  </si>
+  <si>
+    <t>Andres Leonardo</t>
+  </si>
+  <si>
+    <t>Leon Rojas</t>
+  </si>
+  <si>
+    <t>Amortegui Diaz</t>
+  </si>
+  <si>
+    <t>Aldemar</t>
+  </si>
+  <si>
+    <t>Gordillo Galeano</t>
+  </si>
+  <si>
+    <t>Castillo Robles</t>
+  </si>
+  <si>
+    <t>Rafael Alberto</t>
+  </si>
+  <si>
+    <t>Niquefa Velasquez</t>
+  </si>
+  <si>
+    <t>Adarme Jaimes</t>
+  </si>
+  <si>
+    <t>Moreno Mantilla</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
+    <t>Osorio Ramirez</t>
+  </si>
+  <si>
+    <t>Fabio Augusto</t>
+  </si>
+  <si>
+    <t>Gonzalez Osorio</t>
+  </si>
+  <si>
+    <t>Felipe</t>
+  </si>
+  <si>
+    <t>Restrepo Calle</t>
+  </si>
+  <si>
+    <t>Pedro Augusto</t>
+  </si>
+  <si>
+    <t>Lopez Lancheros</t>
+  </si>
+  <si>
+    <t>Juan Sebastian</t>
+  </si>
+  <si>
+    <t>Hernandez Suarez</t>
+  </si>
+  <si>
+    <t>Salvador Domingo</t>
+  </si>
+  <si>
+    <t>Rojas Lequerica</t>
+  </si>
+  <si>
+    <t>Ayda Catalina</t>
+  </si>
+  <si>
+    <t>Galvis Castro</t>
+  </si>
+  <si>
+    <t>Ines Concepcion</t>
+  </si>
+  <si>
+    <t>Julian David</t>
+  </si>
+  <si>
+    <t>Silva Correal</t>
+  </si>
+  <si>
+    <t>Jorge Luis</t>
+  </si>
+  <si>
+    <t>Sanchez Lozano</t>
+  </si>
+  <si>
+    <t>Christian Camilo</t>
+  </si>
+  <si>
+    <t>Gutierrez Angulo</t>
+  </si>
+  <si>
+    <t>Victor Hernan</t>
+  </si>
+  <si>
+    <t>Garzon Rodriguez</t>
+  </si>
+  <si>
+    <t>Jairo Edmundo</t>
+  </si>
+  <si>
+    <t>Yepes Heredia</t>
+  </si>
+  <si>
+    <t>Obregon Neira</t>
+  </si>
+  <si>
+    <t>Sergio Andres</t>
+  </si>
+  <si>
+    <t>Salazar Galan</t>
+  </si>
+  <si>
+    <t>Saenz Saavedra</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>Estrada Mejia</t>
+  </si>
+  <si>
+    <t>Franco Rojas</t>
+  </si>
+  <si>
+    <t>Collazos Chavez</t>
+  </si>
+  <si>
+    <t>Gonzalez Murillo</t>
+  </si>
+  <si>
+    <t>Rafael Orland</t>
+  </si>
+  <si>
+    <t>Ortiz Mosquera</t>
+  </si>
+  <si>
+    <t>Pedro Antonio</t>
+  </si>
+  <si>
+    <t>Hernandez Borda</t>
+  </si>
+  <si>
+    <t>Gutierrez Guevara</t>
+  </si>
+  <si>
+    <t>Bernardo</t>
+  </si>
+  <si>
+    <t>Castillo Herran</t>
+  </si>
+  <si>
+    <t>Javier Enrique</t>
+  </si>
+  <si>
+    <t>Velez Sanchez</t>
+  </si>
+  <si>
+    <t>Parra Arango</t>
+  </si>
+  <si>
+    <t>Juan</t>
+  </si>
+  <si>
+    <t>Tamasco Torres</t>
+  </si>
+  <si>
+    <t>Cubillos Peña</t>
+  </si>
+  <si>
+    <t>Otoniel Alfonso</t>
+  </si>
+  <si>
+    <t>Sanabria Artunduaga</t>
+  </si>
+  <si>
+    <t>Meneses Ariza</t>
+  </si>
+  <si>
+    <t>Edgar Eduardo</t>
+  </si>
+  <si>
+    <t>Rodriguez Granados</t>
+  </si>
+  <si>
+    <t>Duarte Agudelo</t>
+  </si>
+  <si>
+    <t>Guillermo Eduardo</t>
+  </si>
+  <si>
+    <t>Avila Alvarez</t>
+  </si>
+  <si>
+    <t>Luis Enrique</t>
+  </si>
+  <si>
+    <t>Gil Torres</t>
+  </si>
+  <si>
+    <t>Paola Margarita</t>
+  </si>
+  <si>
+    <t>Cavadia Alvarez</t>
+  </si>
+  <si>
+    <t>Rodriguez Rincon</t>
+  </si>
+  <si>
+    <t>Lizarazo Marriaga</t>
+  </si>
+  <si>
+    <t>Sonia Cecilia</t>
+  </si>
+  <si>
+    <t>Mangones Matos</t>
+  </si>
+  <si>
+    <t>Sandra Patricia</t>
+  </si>
+  <si>
+    <t>Cuervo Andrade</t>
+  </si>
+  <si>
+    <t>Caori Patricia</t>
+  </si>
+  <si>
+    <t>Takeuchi Tam</t>
+  </si>
+  <si>
+    <t>Liliana Lucia</t>
+  </si>
+  <si>
+    <t>Lyons Barrera</t>
+  </si>
+  <si>
+    <t>Gloria Ines</t>
+  </si>
+  <si>
+    <t>Beltran Calvo</t>
+  </si>
+  <si>
+    <t>Janneth</t>
+  </si>
+  <si>
+    <t>Pardo Pinzon</t>
+  </si>
+  <si>
+    <t>Claudia Patricia</t>
+  </si>
+  <si>
+    <t>Rubby Stella</t>
+  </si>
+  <si>
+    <t>Martha Cristina</t>
+  </si>
+  <si>
+    <t>Bustos Lopez</t>
+  </si>
+  <si>
+    <t>Clara Yudith</t>
+  </si>
+  <si>
+    <t>Botia Flechas</t>
+  </si>
+  <si>
+    <t>Maritzabel</t>
+  </si>
+  <si>
+    <t>Molina Herrera</t>
+  </si>
+  <si>
+    <t>Luisa Marina</t>
+  </si>
+  <si>
+    <t>Gomez Torres</t>
+  </si>
+  <si>
+    <t>Carol Andrea</t>
+  </si>
+  <si>
+    <t>Murillo Feo</t>
+  </si>
+  <si>
+    <t>Carolina Maria</t>
+  </si>
+  <si>
+    <t>Sanchez Saenz</t>
+  </si>
+  <si>
+    <t>Laura Lucia</t>
+  </si>
+  <si>
+    <t>Constain Montoya</t>
+  </si>
+  <si>
+    <t>Ruth Alejandra</t>
+  </si>
+  <si>
+    <t>Catacolí Jiménez</t>
+  </si>
+  <si>
+    <t>Patricia</t>
+  </si>
+  <si>
+    <t>Luna Tamayo</t>
+  </si>
+  <si>
+    <t>Melissa</t>
+  </si>
+  <si>
+    <t>Rusinque Guatibonza</t>
+  </si>
+  <si>
+    <t>Garcia Lopez</t>
+  </si>
+  <si>
+    <t>Ferney</t>
+  </si>
+  <si>
+    <t>Betancourt Cardozo</t>
+  </si>
+  <si>
+    <t>Vega Mora</t>
+  </si>
+  <si>
+    <t>Adolfo</t>
+  </si>
+  <si>
+    <t>Alarcon Guzman</t>
+  </si>
+  <si>
+    <t>Carlos Javier</t>
+  </si>
+  <si>
+    <t>Gonzalez Vergara</t>
+  </si>
+  <si>
+    <t>Diego Ernesto</t>
+  </si>
+  <si>
+    <t>Duenas Puentes</t>
+  </si>
+  <si>
+    <t>Cuellar Cardenas</t>
+  </si>
+  <si>
+    <t>Agudelo Quigua</t>
+  </si>
+  <si>
+    <t>Gelber Norberto</t>
+  </si>
+  <si>
+    <t>Gutierrez Palacios</t>
+  </si>
+  <si>
+    <t>Carlos Ramiro</t>
+  </si>
+  <si>
+    <t>Vallecilla Bahena</t>
+  </si>
+  <si>
+    <t>Santana Santana</t>
+  </si>
+  <si>
+    <t>Pedro Luis</t>
+  </si>
+  <si>
+    <t>Jimenez Poveda</t>
+  </si>
+  <si>
+    <t>Rodriguez Pineda</t>
+  </si>
+  <si>
+    <t>Julio Esteban</t>
+  </si>
+  <si>
+    <t>Colmenares Montañez</t>
+  </si>
+  <si>
+    <t>Jesus Hernan</t>
+  </si>
+  <si>
+    <t>Octavio</t>
+  </si>
+  <si>
+    <t>Coronado Garcia</t>
+  </si>
+  <si>
+    <t>Mario Camilo</t>
+  </si>
+  <si>
+    <t>Torres Suarez</t>
+  </si>
+  <si>
+    <t>Jorge</t>
+  </si>
+  <si>
+    <t>Ruiz Rojas</t>
+  </si>
+  <si>
+    <t>Lozano Osorno</t>
+  </si>
+  <si>
+    <t>Edgar Leonardo</t>
+  </si>
+  <si>
+    <t>Villarreal Gonzalez</t>
+  </si>
+  <si>
+    <t>Dorian Luis</t>
+  </si>
+  <si>
+    <t>Linero Segrera</t>
+  </si>
+  <si>
+    <t>John Fabio</t>
+  </si>
+  <si>
+    <t>Acuña Caita</t>
+  </si>
+  <si>
+    <t>Moncada Aristizabal</t>
+  </si>
+  <si>
+    <t>Carlos Felipe</t>
+  </si>
+  <si>
+    <t>Urazan Bonells</t>
+  </si>
+  <si>
+    <t>Santiago Cely</t>
+  </si>
+  <si>
+    <t>Daniel Ricardo</t>
+  </si>
+  <si>
+    <t>Lozano Monsalve</t>
+  </si>
+  <si>
+    <t>Leonardo David</t>
+  </si>
+  <si>
+    <t>Donado Garzon</t>
+  </si>
+  <si>
+    <t>Pedro Mauricio</t>
+  </si>
+  <si>
+    <t>Avellaneda Lopez</t>
+  </si>
+  <si>
+    <t>Mario Javier</t>
+  </si>
+  <si>
+    <t>Cardozo Chaux</t>
+  </si>
+  <si>
+    <t>Pineda Jaimes</t>
+  </si>
+  <si>
+    <t>Puerto Suarez</t>
+  </si>
+  <si>
+    <t>Carlos Alfonso</t>
+  </si>
+  <si>
+    <t>Gomez Guacaneme</t>
+  </si>
+  <si>
+    <t>Wilson Ernesto</t>
+  </si>
+  <si>
+    <t>Vargas Vargas</t>
+  </si>
+  <si>
+    <t>Valenzuela Mahecha</t>
+  </si>
+  <si>
+    <t>Vargas Luna</t>
+  </si>
+  <si>
+    <t>Juan Jacobo</t>
+  </si>
+  <si>
+    <t>Pinilla Rodriguez</t>
+  </si>
+  <si>
+    <t>Camilo Esteban</t>
+  </si>
+  <si>
+    <t>Cadena Vargas</t>
+  </si>
+  <si>
+    <t>Xavier Fernando</t>
+  </si>
+  <si>
+    <t>Hurtado Amezquita</t>
+  </si>
+  <si>
+    <t>Oscar Leonardo</t>
+  </si>
+  <si>
+    <t>Garcia Navarrete</t>
+  </si>
+  <si>
+    <t>Erasmo Alfredo</t>
+  </si>
+  <si>
+    <t>Rodriguez Sandoval</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>Castro Garcia</t>
+  </si>
+  <si>
+    <t>Ricardo Jose</t>
+  </si>
+  <si>
+    <t>Pena Lindarte</t>
+  </si>
+  <si>
+    <t>Aristizabal Galan</t>
+  </si>
+  <si>
+    <t>Jose Ricardo</t>
+  </si>
+  <si>
+    <t>Martinez Vargas</t>
+  </si>
+  <si>
+    <t>Samuel Fernando</t>
+  </si>
+  <si>
+    <t>Mesa Giraldo</t>
+  </si>
+  <si>
+    <t>Lucio Guillermo</t>
+  </si>
+  <si>
+    <t>Lopez Yepez</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001371417</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001240633</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001353347</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001421474</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001479088</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001413927</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000013192</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001468331</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000266299</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000249360</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000773093</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000177725</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001447216</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000105244</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000438413</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001403321</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000193402</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000057932</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000105937</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000105872</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000105929</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000425125</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000696617</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000537071</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000228338</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000006947</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001455783</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001062581</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001394259</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001367943</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000722065</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000953423</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001343767</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000516708</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000297585</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000689696</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000151947</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000105961</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000105716</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000105902</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000105910</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000229784</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000508586</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000105899</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001251139</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000436836</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000348252</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000106070</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000871478</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000005562</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000575283</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000505013</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001370447</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000768316</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000106089</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001246089</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000718564</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000971120</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000088633</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001638354</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001646194</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001367464</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001399168</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001579067</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001498564</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000164267</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000160300</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000553557</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000404837</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001092553</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000747920</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000209961</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000433004</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001395808</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000054070</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000495360</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000048046</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000418340</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000375128</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000401439</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000218103</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000498920</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001567224</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000658553</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000221996</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000209678</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000216666</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001366116</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001482562</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000218430</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000043214</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000559105</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000067804</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001094947</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000833495</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001511392</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000405833</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000675067</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000454664</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000811017</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001459628</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000517020</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001370642</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001487318</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001367865</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000406759</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000418668</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001371299</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001442181</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001590155</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001491928</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001374497</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001617849</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000912115</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001352282</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000447137</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001096346</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001292340</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000261637</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001003542</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000198846</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001337688</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000044610</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000037524</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000037516</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000464392</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000675326</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001407608</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001375227</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000747998</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000269212</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000408379</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001602733</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000909440</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000722383</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000193151</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000154890</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000409421</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000352306</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001026119</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000006149</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000220140</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000830690</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000054321</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001352454</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000462411</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000305030</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001357056</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000583839</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000037621</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001024965</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001394402</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000855847</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001394035</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001423056</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001405838</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000616885</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000987360</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001083929</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001285092</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001617577</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000561479</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000747122</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000149713</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001250035</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001374573</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000158135</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001465068</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000022602</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001401755</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001416653</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001635026</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001360609</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001409754</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001477774</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001460363</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001537784</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001482837</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000343854</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001335237</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001365346</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001542207</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001354409</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001333865</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000261823</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000145963</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001529255</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000266930</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000155144</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000199087</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000187038</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001281992</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000338249</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000479063</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001484821</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000186970</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000657875</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000203572</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000471801</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000418790</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000293075</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001443872</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001338568</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000634557</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001050524</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001419496</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000099112</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000576794</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000338885</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001370358</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000480231</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000323594</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001415250</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000672610</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001128345</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001496205</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000517623</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000084008</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000674915</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000674710</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000948780</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000039752</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000639508</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001541483</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001494814</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000233439</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000230405</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000801461</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000343846</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000105260</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000695866</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000296902</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000226130</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001085468</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001375105</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000463388</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000224596</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000812927</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001231790</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001256084</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000941263</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000486388</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001386970</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000069462</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000472824</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001383279</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001144693</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001069810</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000407984</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001231987</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001371117</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001343502</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001177648</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001092170</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001006584</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001392682</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001181270</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001400355</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000152064</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000437204</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001513984</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001468837</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001105426</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001250248</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000116619</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000212350</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000347167</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000343838</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000499625</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001369523</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001380476</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001475611</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001442023</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000974749</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001399919</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001407409</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001064100</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001643149</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001337259</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000194077</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001433802</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000050970</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001242300</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000033572</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000159387</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000441570</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000195936</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000005401</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000005363</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000441112</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000693073</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000848867</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001272454</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000195731</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000194417</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000853097</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000005517</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000145769</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001027948</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001640951</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001609161</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000248452</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001194267</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001479365</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001343757</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000272345</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000745758</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000005444</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001386410</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000656984</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001410851</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000151963</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000494208</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000274917</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000895342</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000249670</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000440850</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001465663</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001634462</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001346966</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001148885</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000290262</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000005355</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000322938</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000005410</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001133047</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000006317</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000569615</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000192350</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001223453</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000371211</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000277584</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000050989</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000005509</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000005479</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000201707</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000252581</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000245500</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000260886</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000208990</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001607239</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000231045</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000318191</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000203556</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001358805</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000150878</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000316571</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000182265</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000252158</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000151106</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000418552</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001405840</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000153796</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000494135</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000288810</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000449695</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001204084</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000584223</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000739367</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000920045</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000141984</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000151114</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001541488</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000641413</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000277576</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000722340</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0001341451</t>
+  </si>
+  <si>
+    <t>Departamento de ingeniería química y ambiental</t>
+  </si>
+  <si>
+    <t>Departamento de ingeniería mecánica y mecatrónica</t>
+  </si>
+  <si>
+    <t>Departamento de ingeniería eléctrica y electrónica</t>
+  </si>
+  <si>
+    <t>Departamento de ingeniería de sistemas e industrial</t>
+  </si>
+  <si>
+    <t>Departamento de ingeniería civil y agrícola</t>
   </si>
 </sst>
 </file>
@@ -169,7 +3312,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -177,8 +3320,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
@@ -593,10 +3734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="B22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,62 +3768,5186 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="B2" t="s">
+        <v>616</v>
+      </c>
+      <c r="C2" t="s">
+        <v>617</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E3" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>556</v>
+      </c>
+      <c r="C4" t="s">
+        <v>557</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E4" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>619</v>
+      </c>
+      <c r="C5" t="s">
+        <v>620</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>589</v>
+      </c>
+      <c r="C6" t="s">
+        <v>590</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E6" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>635</v>
+      </c>
+      <c r="C7" t="s">
+        <v>636</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>329</v>
+      </c>
+      <c r="C8" t="s">
+        <v>634</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>570</v>
+      </c>
+      <c r="C9" t="s">
+        <v>571</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E9" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E10" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>293</v>
+      </c>
+      <c r="C11" t="s">
+        <v>294</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E11" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>623</v>
+      </c>
+      <c r="C12" t="s">
+        <v>624</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E13" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E14" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>343</v>
+      </c>
+      <c r="C15" t="s">
+        <v>344</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E15" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>484</v>
+      </c>
+      <c r="C16" t="s">
+        <v>551</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E16" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>263</v>
+      </c>
+      <c r="C17" t="s">
+        <v>264</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E17" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>261</v>
+      </c>
+      <c r="C18" t="s">
+        <v>262</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E18" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>149</v>
+      </c>
+      <c r="C19" t="s">
+        <v>307</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E19" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>443</v>
+      </c>
+      <c r="C20" t="s">
+        <v>444</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E20" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>195</v>
+      </c>
+      <c r="C21" t="s">
+        <v>196</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E21" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>259</v>
+      </c>
+      <c r="C22" t="s">
+        <v>260</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E22" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>166</v>
+      </c>
+      <c r="C23" t="s">
+        <v>167</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E23" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" t="s">
+        <v>548</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E24" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>632</v>
+      </c>
+      <c r="C25" t="s">
+        <v>633</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>161</v>
+      </c>
+      <c r="C26" t="s">
+        <v>162</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E26" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C27" t="s">
+        <v>298</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E27" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E28" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>199</v>
+      </c>
+      <c r="C29" t="s">
+        <v>200</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E29" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>482</v>
+      </c>
+      <c r="C30" t="s">
+        <v>483</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E30" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>435</v>
+      </c>
+      <c r="C31" t="s">
+        <v>436</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E31" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>125</v>
+      </c>
+      <c r="C32" t="s">
+        <v>126</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E32" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>413</v>
+      </c>
+      <c r="C33" t="s">
+        <v>414</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E33" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E34" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>457</v>
+      </c>
+      <c r="C35" t="s">
+        <v>458</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E36" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E37" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" t="s">
+        <v>95</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E38" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E39" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" t="s">
+        <v>89</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E40" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E41" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E42" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E43" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" t="s">
+        <v>104</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E44" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>117</v>
+      </c>
+      <c r="C45" t="s">
+        <v>118</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E45" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>516</v>
+      </c>
+      <c r="C46" t="s">
+        <v>517</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E46" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>679</v>
+      </c>
+      <c r="C47" t="s">
+        <v>680</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>121</v>
+      </c>
+      <c r="C48" t="s">
+        <v>572</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E48" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>322</v>
+      </c>
+      <c r="C49" t="s">
+        <v>375</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E49" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>333</v>
+      </c>
+      <c r="C50" t="s">
+        <v>334</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E50" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>454</v>
+      </c>
+      <c r="C51" t="s">
+        <v>654</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>661</v>
+      </c>
+      <c r="C52" t="s">
+        <v>662</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E52" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>681</v>
+      </c>
+      <c r="C53" t="s">
+        <v>682</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E53" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>80</v>
+      </c>
+      <c r="C54" t="s">
+        <v>81</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E54" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>595</v>
+      </c>
+      <c r="C55" t="s">
+        <v>596</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E55" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>506</v>
+      </c>
+      <c r="C56" t="s">
+        <v>507</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E56" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>665</v>
+      </c>
+      <c r="C57" t="s">
+        <v>666</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E57" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>285</v>
+      </c>
+      <c r="C58" t="s">
+        <v>286</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E58" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>27</v>
+      </c>
+      <c r="C59" t="s">
+        <v>381</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E59" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>339</v>
+      </c>
+      <c r="C60" t="s">
+        <v>340</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E60" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>191</v>
+      </c>
+      <c r="C61" t="s">
+        <v>552</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E61" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>142</v>
+      </c>
+      <c r="C62" t="s">
+        <v>143</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E62" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>140</v>
+      </c>
+      <c r="C63" t="s">
+        <v>141</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E63" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>31</v>
+      </c>
+      <c r="C64" t="s">
+        <v>32</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E64" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>657</v>
+      </c>
+      <c r="C65" t="s">
+        <v>658</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E65" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>392</v>
+      </c>
+      <c r="C66" t="s">
+        <v>393</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E66" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>378</v>
+      </c>
+      <c r="C67" t="s">
+        <v>384</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E67" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>495</v>
+      </c>
+      <c r="C68" t="s">
+        <v>626</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E68" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>283</v>
+      </c>
+      <c r="C69" t="s">
+        <v>284</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E69" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>41</v>
+      </c>
+      <c r="C70" t="s">
+        <v>42</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E70" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>164</v>
+      </c>
+      <c r="C71" t="s">
+        <v>545</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E71" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>567</v>
+      </c>
+      <c r="C72" t="s">
+        <v>568</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E72" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>329</v>
+      </c>
+      <c r="C73" t="s">
+        <v>566</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E73" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>554</v>
+      </c>
+      <c r="C74" t="s">
+        <v>555</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E74" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>156</v>
+      </c>
+      <c r="C75" t="s">
+        <v>257</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E75" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>382</v>
+      </c>
+      <c r="C76" t="s">
+        <v>383</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E76" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>637</v>
+      </c>
+      <c r="C77" t="s">
+        <v>462</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E77" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>39</v>
+      </c>
+      <c r="C78" t="s">
+        <v>651</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E78" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>396</v>
+      </c>
+      <c r="C79" t="s">
+        <v>397</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E79" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>378</v>
+      </c>
+      <c r="C80" t="s">
+        <v>644</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E80" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>185</v>
+      </c>
+      <c r="C81" t="s">
+        <v>186</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E81" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>153</v>
+      </c>
+      <c r="C82" t="s">
+        <v>154</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E82" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>329</v>
+      </c>
+      <c r="C83" t="s">
+        <v>519</v>
+      </c>
+      <c r="D83" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E83" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>187</v>
+      </c>
+      <c r="C84" t="s">
+        <v>188</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E84" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>174</v>
+      </c>
+      <c r="C85" t="s">
+        <v>175</v>
+      </c>
+      <c r="D85" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E85" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>193</v>
+      </c>
+      <c r="C86" t="s">
+        <v>194</v>
+      </c>
+      <c r="D86" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E86" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>23</v>
+      </c>
+      <c r="C87" t="s">
+        <v>295</v>
+      </c>
+      <c r="D87" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E87" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>183</v>
+      </c>
+      <c r="C88" t="s">
+        <v>184</v>
+      </c>
+      <c r="D88" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E88" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>471</v>
+      </c>
+      <c r="C89" t="s">
+        <v>472</v>
+      </c>
+      <c r="D89" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E89" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>227</v>
+      </c>
+      <c r="C90" t="s">
+        <v>465</v>
+      </c>
+      <c r="D90" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E90" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>57</v>
+      </c>
+      <c r="C91" t="s">
+        <v>58</v>
+      </c>
+      <c r="D91" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E91" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>251</v>
+      </c>
+      <c r="C92" t="s">
+        <v>252</v>
+      </c>
+      <c r="D92" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E92" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>90</v>
+      </c>
+      <c r="C93" t="s">
+        <v>91</v>
+      </c>
+      <c r="D93" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E93" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>452</v>
+      </c>
+      <c r="C94" t="s">
+        <v>453</v>
+      </c>
+      <c r="D94" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E94" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>647</v>
+      </c>
+      <c r="C95" t="s">
+        <v>648</v>
+      </c>
+      <c r="D95" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E95" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>450</v>
+      </c>
+      <c r="C96" t="s">
+        <v>451</v>
+      </c>
+      <c r="D96" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E96" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>640</v>
+      </c>
+      <c r="C97" t="s">
+        <v>641</v>
+      </c>
+      <c r="D97" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E97" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>208</v>
+      </c>
+      <c r="C98" t="s">
+        <v>579</v>
+      </c>
+      <c r="D98" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E98" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>27</v>
+      </c>
+      <c r="C99" t="s">
+        <v>28</v>
+      </c>
+      <c r="D99" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E99" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>603</v>
+      </c>
+      <c r="C100" t="s">
+        <v>604</v>
+      </c>
+      <c r="D100" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E100" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>659</v>
+      </c>
+      <c r="C101" t="s">
+        <v>660</v>
+      </c>
+      <c r="D101" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E101" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>638</v>
+      </c>
+      <c r="C102" t="s">
+        <v>639</v>
+      </c>
+      <c r="D102" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E102" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>76</v>
+      </c>
+      <c r="C103" t="s">
+        <v>643</v>
+      </c>
+      <c r="D103" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E103" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>253</v>
+      </c>
+      <c r="C104" t="s">
+        <v>254</v>
+      </c>
+      <c r="D104" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E104" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>373</v>
+      </c>
+      <c r="C105" t="s">
+        <v>374</v>
+      </c>
+      <c r="D105" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E105" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>25</v>
+      </c>
+      <c r="C106" t="s">
+        <v>26</v>
+      </c>
+      <c r="D106" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E106" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>379</v>
+      </c>
+      <c r="C107" t="s">
+        <v>380</v>
+      </c>
+      <c r="D107" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E107" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>274</v>
+      </c>
+      <c r="C108" t="s">
+        <v>275</v>
+      </c>
+      <c r="D108" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E108" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>585</v>
+      </c>
+      <c r="C109" t="s">
+        <v>586</v>
+      </c>
+      <c r="D109" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E109" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>599</v>
+      </c>
+      <c r="C110" t="s">
+        <v>600</v>
+      </c>
+      <c r="D110" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E110" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>686</v>
+      </c>
+      <c r="C111" t="s">
+        <v>687</v>
+      </c>
+      <c r="D111" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E111" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>382</v>
+      </c>
+      <c r="C112" t="s">
+        <v>631</v>
+      </c>
+      <c r="D112" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E112" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>155</v>
+      </c>
+      <c r="C113" t="s">
+        <v>669</v>
+      </c>
+      <c r="D113" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E113" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>5</v>
+      </c>
+      <c r="C114" t="s">
+        <v>615</v>
+      </c>
+      <c r="D114" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E114" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>401</v>
+      </c>
+      <c r="C115" t="s">
+        <v>402</v>
+      </c>
+      <c r="D115" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E115" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>463</v>
+      </c>
+      <c r="C116" t="s">
+        <v>464</v>
+      </c>
+      <c r="D116" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E116" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>76</v>
+      </c>
+      <c r="C117" t="s">
+        <v>77</v>
+      </c>
+      <c r="D117" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E117" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>302</v>
+      </c>
+      <c r="C118" t="s">
+        <v>303</v>
+      </c>
+      <c r="D118" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E118" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>655</v>
+      </c>
+      <c r="C119" t="s">
+        <v>656</v>
+      </c>
+      <c r="D119" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E119" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>649</v>
+      </c>
+      <c r="C120" t="s">
+        <v>650</v>
+      </c>
+      <c r="D120" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E120" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>180</v>
+      </c>
+      <c r="C121" t="s">
+        <v>618</v>
+      </c>
+      <c r="D121" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E121" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>423</v>
+      </c>
+      <c r="C122" t="s">
+        <v>424</v>
+      </c>
+      <c r="D122" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E122" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>98</v>
+      </c>
+      <c r="C123" t="s">
+        <v>387</v>
+      </c>
+      <c r="D123" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E123" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>417</v>
+      </c>
+      <c r="C124" t="s">
+        <v>418</v>
+      </c>
+      <c r="D124" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E124" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>522</v>
+      </c>
+      <c r="C125" t="s">
+        <v>523</v>
+      </c>
+      <c r="D125" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E125" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>125</v>
+      </c>
+      <c r="C126" t="s">
+        <v>456</v>
+      </c>
+      <c r="D126" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E126" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>361</v>
+      </c>
+      <c r="C127" t="s">
+        <v>362</v>
+      </c>
+      <c r="D127" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E127" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>520</v>
+      </c>
+      <c r="C128" t="s">
+        <v>521</v>
+      </c>
+      <c r="D128" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E128" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>101</v>
+      </c>
+      <c r="C129" t="s">
+        <v>102</v>
+      </c>
+      <c r="D129" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E129" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>289</v>
+      </c>
+      <c r="C130" t="s">
+        <v>290</v>
+      </c>
+      <c r="D130" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E130" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>629</v>
+      </c>
+      <c r="C131" t="s">
+        <v>630</v>
+      </c>
+      <c r="D131" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E131" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
+        <v>170</v>
+      </c>
+      <c r="C132" t="s">
+        <v>171</v>
+      </c>
+      <c r="D132" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E132" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
+        <v>172</v>
+      </c>
+      <c r="C133" t="s">
+        <v>173</v>
+      </c>
+      <c r="D133" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E133" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
+        <v>146</v>
+      </c>
+      <c r="C134" t="s">
+        <v>147</v>
+      </c>
+      <c r="D134" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E134" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
+        <v>39</v>
+      </c>
+      <c r="C135" t="s">
+        <v>209</v>
+      </c>
+      <c r="D135" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E135" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
+        <v>225</v>
+      </c>
+      <c r="C136" t="s">
+        <v>226</v>
+      </c>
+      <c r="D136" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E136" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
+        <v>76</v>
+      </c>
+      <c r="C137" t="s">
+        <v>490</v>
+      </c>
+      <c r="D137" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E137" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
+        <v>276</v>
+      </c>
+      <c r="C138" t="s">
+        <v>277</v>
+      </c>
+      <c r="D138" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E138" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
+        <v>287</v>
+      </c>
+      <c r="C139" t="s">
+        <v>288</v>
+      </c>
+      <c r="D139" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E139" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B140" t="s">
+        <v>168</v>
+      </c>
+      <c r="C140" t="s">
+        <v>169</v>
+      </c>
+      <c r="D140" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E140" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
+        <v>642</v>
+      </c>
+      <c r="C141" t="s">
+        <v>663</v>
+      </c>
+      <c r="D141" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E141" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
+        <v>228</v>
+      </c>
+      <c r="C142" t="s">
+        <v>229</v>
+      </c>
+      <c r="D142" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E142" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
+        <v>139</v>
+      </c>
+      <c r="C143" t="s">
+        <v>400</v>
+      </c>
+      <c r="D143" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E143" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
+        <v>51</v>
+      </c>
+      <c r="C144" t="s">
+        <v>52</v>
+      </c>
+      <c r="D144" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E144" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B145" t="s">
+        <v>157</v>
+      </c>
+      <c r="C145" t="s">
+        <v>158</v>
+      </c>
+      <c r="D145" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E145" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B146" t="s">
+        <v>99</v>
+      </c>
+      <c r="C146" t="s">
+        <v>100</v>
+      </c>
+      <c r="D146" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E146" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
+        <v>508</v>
+      </c>
+      <c r="C147" t="s">
+        <v>509</v>
+      </c>
+      <c r="D147" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E147" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B148" t="s">
+        <v>37</v>
+      </c>
+      <c r="C148" t="s">
+        <v>38</v>
+      </c>
+      <c r="D148" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E148" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
+        <v>8</v>
+      </c>
+      <c r="C149" t="s">
+        <v>518</v>
+      </c>
+      <c r="D149" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E149" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
+        <v>605</v>
+      </c>
+      <c r="C150" t="s">
+        <v>606</v>
+      </c>
+      <c r="D150" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E150" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B151" t="s">
+        <v>559</v>
+      </c>
+      <c r="C151" t="s">
+        <v>560</v>
+      </c>
+      <c r="D151" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E151" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B152" t="s">
+        <v>39</v>
+      </c>
+      <c r="C152" t="s">
+        <v>553</v>
+      </c>
+      <c r="D152" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E152" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
+        <v>204</v>
+      </c>
+      <c r="C153" t="s">
+        <v>247</v>
+      </c>
+      <c r="D153" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E153" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="154" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B154" t="s">
+        <v>468</v>
+      </c>
+      <c r="C154" t="s">
+        <v>670</v>
+      </c>
+      <c r="D154" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E154" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B155" t="s">
+        <v>212</v>
+      </c>
+      <c r="C155" t="s">
+        <v>213</v>
+      </c>
+      <c r="D155" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E155" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B156" t="s">
+        <v>113</v>
+      </c>
+      <c r="C156" t="s">
+        <v>301</v>
+      </c>
+      <c r="D156" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E156" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
+        <v>469</v>
+      </c>
+      <c r="C157" t="s">
+        <v>470</v>
+      </c>
+      <c r="D157" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E157" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B158" t="s">
         <v>123</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C158" t="s">
+        <v>265</v>
+      </c>
+      <c r="D158" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E158" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B159" t="s">
+        <v>398</v>
+      </c>
+      <c r="C159" t="s">
+        <v>399</v>
+      </c>
+      <c r="D159" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E159" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B160" t="s">
+        <v>484</v>
+      </c>
+      <c r="C160" t="s">
+        <v>485</v>
+      </c>
+      <c r="D160" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E160" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B161" t="s">
+        <v>388</v>
+      </c>
+      <c r="C161" t="s">
+        <v>389</v>
+      </c>
+      <c r="D161" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E161" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B162" t="s">
+        <v>421</v>
+      </c>
+      <c r="C162" t="s">
+        <v>422</v>
+      </c>
+      <c r="D162" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E162" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B163" t="s">
+        <v>148</v>
+      </c>
+      <c r="C163" t="s">
+        <v>479</v>
+      </c>
+      <c r="D163" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E163" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B164" t="s">
+        <v>667</v>
+      </c>
+      <c r="C164" t="s">
+        <v>668</v>
+      </c>
+      <c r="D164" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E164" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B165" t="s">
+        <v>597</v>
+      </c>
+      <c r="C165" t="s">
+        <v>598</v>
+      </c>
+      <c r="D165" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E165" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B166" t="s">
+        <v>164</v>
+      </c>
+      <c r="C166" t="s">
+        <v>165</v>
+      </c>
+      <c r="D166" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E166" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="167" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B167" t="s">
+        <v>176</v>
+      </c>
+      <c r="C167" t="s">
+        <v>177</v>
+      </c>
+      <c r="D167" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E167" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B168" t="s">
+        <v>524</v>
+      </c>
+      <c r="C168" t="s">
+        <v>525</v>
+      </c>
+      <c r="D168" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E168" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B169" t="s">
+        <v>111</v>
+      </c>
+      <c r="C169" t="s">
+        <v>112</v>
+      </c>
+      <c r="D169" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E169" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B170" t="s">
+        <v>92</v>
+      </c>
+      <c r="C170" t="s">
+        <v>93</v>
+      </c>
+      <c r="D170" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E170" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B171" t="s">
+        <v>23</v>
+      </c>
+      <c r="C171" t="s">
+        <v>75</v>
+      </c>
+      <c r="D171" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E171" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B172" t="s">
+        <v>218</v>
+      </c>
+      <c r="C172" t="s">
+        <v>219</v>
+      </c>
+      <c r="D172" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E172" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="173" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B173" t="s">
+        <v>433</v>
+      </c>
+      <c r="C173" t="s">
+        <v>434</v>
+      </c>
+      <c r="D173" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E173" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="174" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B174" t="s">
+        <v>55</v>
+      </c>
+      <c r="C174" t="s">
+        <v>56</v>
+      </c>
+      <c r="D174" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E174" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="175" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B175" t="s">
+        <v>144</v>
+      </c>
+      <c r="C175" t="s">
+        <v>145</v>
+      </c>
+      <c r="D175" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E175" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="176" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B176" t="s">
+        <v>13</v>
+      </c>
+      <c r="C176" t="s">
+        <v>198</v>
+      </c>
+      <c r="D176" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E176" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="177" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B177" t="s">
+        <v>329</v>
+      </c>
+      <c r="C177" t="s">
+        <v>330</v>
+      </c>
+      <c r="D177" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E177" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="178" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B178" t="s">
+        <v>78</v>
+      </c>
+      <c r="C178" t="s">
+        <v>625</v>
+      </c>
+      <c r="D178" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E178" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="179" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B179" t="s">
+        <v>109</v>
+      </c>
+      <c r="C179" t="s">
+        <v>110</v>
+      </c>
+      <c r="D179" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E179" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="180" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B180" t="s">
+        <v>415</v>
+      </c>
+      <c r="C180" t="s">
+        <v>416</v>
+      </c>
+      <c r="D180" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E180" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="181" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B181" t="s">
+        <v>255</v>
+      </c>
+      <c r="C181" t="s">
+        <v>306</v>
+      </c>
+      <c r="D181" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E181" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="182" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B182" t="s">
+        <v>673</v>
+      </c>
+      <c r="C182" t="s">
+        <v>674</v>
+      </c>
+      <c r="D182" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E182" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="183" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B183" t="s">
+        <v>318</v>
+      </c>
+      <c r="C183" t="s">
+        <v>319</v>
+      </c>
+      <c r="D183" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E183" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="184" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B184" t="s">
+        <v>407</v>
+      </c>
+      <c r="C184" t="s">
+        <v>408</v>
+      </c>
+      <c r="D184" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E184" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="185" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B185" t="s">
+        <v>445</v>
+      </c>
+      <c r="C185" t="s">
+        <v>446</v>
+      </c>
+      <c r="D185" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E185" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="186" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B186" t="s">
+        <v>230</v>
+      </c>
+      <c r="C186" t="s">
+        <v>685</v>
+      </c>
+      <c r="D186" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E186" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="187" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B187" t="s">
+        <v>593</v>
+      </c>
+      <c r="C187" t="s">
+        <v>451</v>
+      </c>
+      <c r="D187" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E187" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="188" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B188" t="s">
+        <v>394</v>
+      </c>
+      <c r="C188" t="s">
+        <v>395</v>
+      </c>
+      <c r="D188" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E188" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="189" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B189" t="s">
+        <v>181</v>
+      </c>
+      <c r="C189" t="s">
+        <v>182</v>
+      </c>
+      <c r="D189" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E189" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="190" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B190" t="s">
+        <v>427</v>
+      </c>
+      <c r="C190" t="s">
+        <v>428</v>
+      </c>
+      <c r="D190" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E190" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="191" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B191" t="s">
+        <v>439</v>
+      </c>
+      <c r="C191" t="s">
+        <v>440</v>
+      </c>
+      <c r="D191" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E191" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="192" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B192" t="s">
+        <v>437</v>
+      </c>
+      <c r="C192" t="s">
+        <v>438</v>
+      </c>
+      <c r="D192" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E192" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="193" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B193" t="s">
+        <v>210</v>
+      </c>
+      <c r="C193" t="s">
+        <v>211</v>
+      </c>
+      <c r="D193" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E193" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="194" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B194" t="s">
+        <v>266</v>
+      </c>
+      <c r="C194" t="s">
+        <v>267</v>
+      </c>
+      <c r="D194" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E194" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="195" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B195" t="s">
+        <v>78</v>
+      </c>
+      <c r="C195" t="s">
+        <v>79</v>
+      </c>
+      <c r="D195" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E195" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="196" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B196" t="s">
+        <v>561</v>
+      </c>
+      <c r="C196" t="s">
+        <v>562</v>
+      </c>
+      <c r="D196" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E196" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="197" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B197" t="s">
+        <v>460</v>
+      </c>
+      <c r="C197" t="s">
+        <v>461</v>
+      </c>
+      <c r="D197" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E197" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="198" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B198" t="s">
+        <v>53</v>
+      </c>
+      <c r="C198" t="s">
+        <v>54</v>
+      </c>
+      <c r="D198" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E198" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="199" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B199" t="s">
+        <v>121</v>
+      </c>
+      <c r="C199" t="s">
+        <v>122</v>
+      </c>
+      <c r="D199" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E199" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="200" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B200" t="s">
+        <v>69</v>
+      </c>
+      <c r="C200" t="s">
+        <v>70</v>
+      </c>
+      <c r="D200" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E200" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="201" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B201" t="s">
+        <v>688</v>
+      </c>
+      <c r="C201" t="s">
+        <v>689</v>
+      </c>
+      <c r="D201" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E201" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="202" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B202" t="s">
+        <v>210</v>
+      </c>
+      <c r="C202" t="s">
+        <v>282</v>
+      </c>
+      <c r="D202" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E202" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="203" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B203" t="s">
+        <v>675</v>
+      </c>
+      <c r="C203" t="s">
+        <v>676</v>
+      </c>
+      <c r="D203" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E203" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="204" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B204" t="s">
+        <v>587</v>
+      </c>
+      <c r="C204" t="s">
+        <v>588</v>
+      </c>
+      <c r="D204" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E204" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="205" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B205" t="s">
+        <v>331</v>
+      </c>
+      <c r="C205" t="s">
+        <v>332</v>
+      </c>
+      <c r="D205" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E205" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="206" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B206" t="s">
+        <v>151</v>
+      </c>
+      <c r="C206" t="s">
+        <v>152</v>
+      </c>
+      <c r="D206" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E206" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="207" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B207" t="s">
+        <v>272</v>
+      </c>
+      <c r="C207" t="s">
+        <v>273</v>
+      </c>
+      <c r="D207" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E207" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="208" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B208" t="s">
+        <v>115</v>
+      </c>
+      <c r="C208" t="s">
+        <v>116</v>
+      </c>
+      <c r="D208" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E208" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="209" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B209" t="s">
+        <v>29</v>
+      </c>
+      <c r="C209" t="s">
+        <v>30</v>
+      </c>
+      <c r="D209" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E209" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="210" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B210" t="s">
+        <v>454</v>
+      </c>
+      <c r="C210" t="s">
+        <v>455</v>
+      </c>
+      <c r="D210" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E210" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="211" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B211" t="s">
+        <v>214</v>
+      </c>
+      <c r="C211" t="s">
+        <v>215</v>
+      </c>
+      <c r="D211" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E211" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="212" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B212" t="s">
+        <v>473</v>
+      </c>
+      <c r="C212" t="s">
+        <v>474</v>
+      </c>
+      <c r="D212" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E212" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="213" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B213" t="s">
+        <v>296</v>
+      </c>
+      <c r="C213" t="s">
+        <v>297</v>
+      </c>
+      <c r="D213" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E213" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="214" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B214" t="s">
+        <v>103</v>
+      </c>
+      <c r="C214" t="s">
+        <v>203</v>
+      </c>
+      <c r="D214" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E214" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="215" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B215" t="s">
+        <v>163</v>
+      </c>
+      <c r="C215" t="s">
+        <v>563</v>
+      </c>
+      <c r="D215" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E215" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="216" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B216" t="s">
+        <v>155</v>
+      </c>
+      <c r="C216" t="s">
+        <v>569</v>
+      </c>
+      <c r="D216" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E216" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="217" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B217" t="s">
+        <v>312</v>
+      </c>
+      <c r="C217" t="s">
+        <v>313</v>
+      </c>
+      <c r="D217" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E217" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="218" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B218" t="s">
+        <v>105</v>
+      </c>
+      <c r="C218" t="s">
+        <v>106</v>
+      </c>
+      <c r="D218" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E218" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="219" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B219" t="s">
+        <v>601</v>
+      </c>
+      <c r="C219" t="s">
+        <v>602</v>
+      </c>
+      <c r="D219" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E219" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="220" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B220" t="s">
+        <v>280</v>
+      </c>
+      <c r="C220" t="s">
+        <v>281</v>
+      </c>
+      <c r="D220" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E220" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="221" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B221" t="s">
+        <v>243</v>
+      </c>
+      <c r="C221" t="s">
+        <v>244</v>
+      </c>
+      <c r="D221" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E221" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="222" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B222" t="s">
+        <v>677</v>
+      </c>
+      <c r="C222" t="s">
+        <v>678</v>
+      </c>
+      <c r="D222" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E222" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="223" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B223" t="s">
+        <v>136</v>
+      </c>
+      <c r="C223" t="s">
+        <v>478</v>
+      </c>
+      <c r="D223" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E223" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="224" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B224" t="s">
+        <v>441</v>
+      </c>
+      <c r="C224" t="s">
+        <v>442</v>
+      </c>
+      <c r="D224" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E224" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="225" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B225" t="s">
+        <v>71</v>
+      </c>
+      <c r="C225" t="s">
+        <v>72</v>
+      </c>
+      <c r="D225" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E225" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="226" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B226" t="s">
+        <v>123</v>
+      </c>
+      <c r="C226" t="s">
+        <v>124</v>
+      </c>
+      <c r="D226" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E226" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="227" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B227" t="s">
+        <v>534</v>
+      </c>
+      <c r="C227" t="s">
+        <v>171</v>
+      </c>
+      <c r="D227" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E227" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="228" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B228" t="s">
+        <v>320</v>
+      </c>
+      <c r="C228" t="s">
+        <v>321</v>
+      </c>
+      <c r="D228" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E228" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="229" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B229" t="s">
+        <v>255</v>
+      </c>
+      <c r="C229" t="s">
+        <v>256</v>
+      </c>
+      <c r="D229" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E229" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="230" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B230" t="s">
+        <v>499</v>
+      </c>
+      <c r="C230" t="s">
+        <v>500</v>
+      </c>
+      <c r="D230" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E230" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="231" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B231" t="s">
+        <v>308</v>
+      </c>
+      <c r="C231" t="s">
+        <v>309</v>
+      </c>
+      <c r="D231" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E231" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="232" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B232" t="s">
+        <v>291</v>
+      </c>
+      <c r="C232" t="s">
+        <v>292</v>
+      </c>
+      <c r="D232" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E232" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="233" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B233" t="s">
+        <v>573</v>
+      </c>
+      <c r="C233" t="s">
+        <v>574</v>
+      </c>
+      <c r="D233" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E233" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="234" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B234" t="s">
+        <v>409</v>
+      </c>
+      <c r="C234" t="s">
+        <v>410</v>
+      </c>
+      <c r="D234" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E234" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="235" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B235" t="s">
+        <v>63</v>
+      </c>
+      <c r="C235" t="s">
+        <v>64</v>
+      </c>
+      <c r="D235" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E235" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="236" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B236" t="s">
+        <v>539</v>
+      </c>
+      <c r="C236" t="s">
+        <v>540</v>
+      </c>
+      <c r="D236" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E236" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="237" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B237" t="s">
+        <v>115</v>
+      </c>
+      <c r="C237" t="s">
+        <v>489</v>
+      </c>
+      <c r="D237" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E237" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="238" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B238" t="s">
+        <v>323</v>
+      </c>
+      <c r="C238" t="s">
+        <v>324</v>
+      </c>
+      <c r="D238" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E238" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="239" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B239" t="s">
+        <v>466</v>
+      </c>
+      <c r="C239" t="s">
+        <v>467</v>
+      </c>
+      <c r="D239" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E239" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="240" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B240" t="s">
+        <v>497</v>
+      </c>
+      <c r="C240" t="s">
+        <v>498</v>
+      </c>
+      <c r="D240" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E240" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B241" t="s">
+        <v>149</v>
+      </c>
+      <c r="C241" t="s">
+        <v>150</v>
+      </c>
+      <c r="D241" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E241" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B242" t="s">
+        <v>201</v>
+      </c>
+      <c r="C242" t="s">
+        <v>202</v>
+      </c>
+      <c r="D242" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E242" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B243" t="s">
+        <v>248</v>
+      </c>
+      <c r="C243" t="s">
+        <v>40</v>
+      </c>
+      <c r="D243" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E243" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B244" t="s">
+        <v>513</v>
+      </c>
+      <c r="C244" t="s">
+        <v>514</v>
+      </c>
+      <c r="D244" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E244" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B245" t="s">
+        <v>429</v>
+      </c>
+      <c r="C245" t="s">
+        <v>430</v>
+      </c>
+      <c r="D245" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E245" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B246" t="s">
+        <v>621</v>
+      </c>
+      <c r="C246" t="s">
+        <v>622</v>
+      </c>
+      <c r="D246" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E246" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B247" t="s">
+        <v>487</v>
+      </c>
+      <c r="C247" t="s">
+        <v>488</v>
+      </c>
+      <c r="D247" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E247" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B248" t="s">
+        <v>613</v>
+      </c>
+      <c r="C248" t="s">
+        <v>614</v>
+      </c>
+      <c r="D248" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E248" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B249" t="s">
+        <v>495</v>
+      </c>
+      <c r="C249" t="s">
+        <v>496</v>
+      </c>
+      <c r="D249" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E249" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B250" t="s">
+        <v>503</v>
+      </c>
+      <c r="C250" t="s">
+        <v>504</v>
+      </c>
+      <c r="D250" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E250" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B251" t="s">
+        <v>207</v>
+      </c>
+      <c r="C251" t="s">
+        <v>580</v>
+      </c>
+      <c r="D251" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E251" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B252" t="s">
+        <v>671</v>
+      </c>
+      <c r="C252" t="s">
+        <v>672</v>
+      </c>
+      <c r="D252" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E252" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B253" t="s">
+        <v>627</v>
+      </c>
+      <c r="C253" t="s">
+        <v>628</v>
+      </c>
+      <c r="D253" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E253" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B254" t="s">
+        <v>191</v>
+      </c>
+      <c r="C254" t="s">
+        <v>475</v>
+      </c>
+      <c r="D254" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E254" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B255" t="s">
+        <v>491</v>
+      </c>
+      <c r="C255" t="s">
+        <v>492</v>
+      </c>
+      <c r="D255" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E255" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>321</v>
+      </c>
+      <c r="B256" t="s">
+        <v>11</v>
+      </c>
+      <c r="C256" t="s">
+        <v>12</v>
+      </c>
+      <c r="D256" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E256" s="3" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="257" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B257" t="s">
+        <v>549</v>
+      </c>
+      <c r="C257" t="s">
+        <v>550</v>
+      </c>
+      <c r="D257" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E257" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="258" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B258" t="s">
+        <v>119</v>
+      </c>
+      <c r="C258" t="s">
+        <v>120</v>
+      </c>
+      <c r="D258" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E258" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="259" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B259" t="s">
+        <v>335</v>
+      </c>
+      <c r="C259" t="s">
+        <v>336</v>
+      </c>
+      <c r="D259" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E259" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="260" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B260" t="s">
+        <v>341</v>
+      </c>
+      <c r="C260" t="s">
+        <v>515</v>
+      </c>
+      <c r="D260" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E260" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="261" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B261" t="s">
+        <v>96</v>
+      </c>
+      <c r="C261" t="s">
+        <v>97</v>
+      </c>
+      <c r="D261" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E261" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="262" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B262" t="s">
+        <v>476</v>
+      </c>
+      <c r="C262" t="s">
+        <v>477</v>
+      </c>
+      <c r="D262" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E262" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="263" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B263" t="s">
+        <v>564</v>
+      </c>
+      <c r="C263" t="s">
+        <v>565</v>
+      </c>
+      <c r="D263" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E263" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="264" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B264" t="s">
+        <v>385</v>
+      </c>
+      <c r="C264" t="s">
+        <v>386</v>
+      </c>
+      <c r="D264" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E264" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="265" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B265" t="s">
+        <v>325</v>
+      </c>
+      <c r="C265" t="s">
+        <v>326</v>
+      </c>
+      <c r="D265" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E265" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="266" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B266" t="s">
+        <v>249</v>
+      </c>
+      <c r="C266" t="s">
+        <v>250</v>
+      </c>
+      <c r="D266" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E266" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="267" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B267" t="s">
+        <v>371</v>
+      </c>
+      <c r="C267" t="s">
+        <v>372</v>
+      </c>
+      <c r="D267" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E267" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="268" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B268" t="s">
+        <v>363</v>
+      </c>
+      <c r="C268" t="s">
+        <v>364</v>
+      </c>
+      <c r="D268" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E268" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="269" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B269" t="s">
+        <v>543</v>
+      </c>
+      <c r="C269" t="s">
+        <v>544</v>
+      </c>
+      <c r="D269" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E269" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="270" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B270" t="s">
+        <v>163</v>
+      </c>
+      <c r="C270" t="s">
+        <v>258</v>
+      </c>
+      <c r="D270" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E270" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="271" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B271" t="s">
+        <v>405</v>
+      </c>
+      <c r="C271" t="s">
+        <v>406</v>
+      </c>
+      <c r="D271" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E271" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="272" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B272" t="s">
+        <v>690</v>
+      </c>
+      <c r="C272" t="s">
+        <v>691</v>
+      </c>
+      <c r="D272" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E272" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="273" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B273" t="s">
+        <v>155</v>
+      </c>
+      <c r="C273" t="s">
+        <v>494</v>
+      </c>
+      <c r="D273" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E273" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="274" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B274" t="s">
+        <v>583</v>
+      </c>
+      <c r="C274" t="s">
+        <v>584</v>
+      </c>
+      <c r="D274" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E274" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="275" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B275" t="s">
+        <v>73</v>
+      </c>
+      <c r="C275" t="s">
+        <v>74</v>
+      </c>
+      <c r="D275" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E275" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="276" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B276" t="s">
+        <v>611</v>
+      </c>
+      <c r="C276" t="s">
+        <v>612</v>
+      </c>
+      <c r="D276" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E276" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="277" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B277" t="s">
+        <v>245</v>
+      </c>
+      <c r="C277" t="s">
+        <v>246</v>
+      </c>
+      <c r="D277" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E277" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="278" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B278" t="s">
+        <v>299</v>
+      </c>
+      <c r="C278" t="s">
+        <v>300</v>
+      </c>
+      <c r="D278" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E278" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="279" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B279" t="s">
+        <v>13</v>
+      </c>
+      <c r="C279" t="s">
+        <v>14</v>
+      </c>
+      <c r="D279" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E279" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="280" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B280" t="s">
+        <v>369</v>
+      </c>
+      <c r="C280" t="s">
+        <v>370</v>
+      </c>
+      <c r="D280" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E280" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="281" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B281" t="s">
+        <v>304</v>
+      </c>
+      <c r="C281" t="s">
+        <v>305</v>
+      </c>
+      <c r="D281" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E281" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="282" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B282" t="s">
+        <v>652</v>
+      </c>
+      <c r="C282" t="s">
+        <v>653</v>
+      </c>
+      <c r="D282" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E282" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="283" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B283" t="s">
+        <v>351</v>
+      </c>
+      <c r="C283" t="s">
+        <v>352</v>
+      </c>
+      <c r="D283" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E283" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="284" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B284" t="s">
+        <v>365</v>
+      </c>
+      <c r="C284" t="s">
+        <v>366</v>
+      </c>
+      <c r="D284" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E284" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="285" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B285" t="s">
+        <v>189</v>
+      </c>
+      <c r="C285" t="s">
+        <v>190</v>
+      </c>
+      <c r="D285" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E285" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="286" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B286" t="s">
+        <v>130</v>
+      </c>
+      <c r="C286" t="s">
+        <v>131</v>
+      </c>
+      <c r="D286" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E286" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="287" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B287" t="s">
+        <v>223</v>
+      </c>
+      <c r="C287" t="s">
+        <v>224</v>
+      </c>
+      <c r="D287" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E287" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="288" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B288" t="s">
+        <v>67</v>
+      </c>
+      <c r="C288" t="s">
+        <v>68</v>
+      </c>
+      <c r="D288" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E288" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B289" t="s">
+        <v>526</v>
+      </c>
+      <c r="C289" t="s">
+        <v>527</v>
+      </c>
+      <c r="D289" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E289" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B290" t="s">
+        <v>419</v>
+      </c>
+      <c r="C290" t="s">
+        <v>420</v>
+      </c>
+      <c r="D290" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E290" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B291" t="s">
+        <v>113</v>
+      </c>
+      <c r="C291" t="s">
+        <v>114</v>
+      </c>
+      <c r="D291" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E291" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B292" t="s">
+        <v>19</v>
+      </c>
+      <c r="C292" t="s">
+        <v>220</v>
+      </c>
+      <c r="D292" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E292" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B293" t="s">
+        <v>105</v>
+      </c>
+      <c r="C293" t="s">
+        <v>493</v>
+      </c>
+      <c r="D293" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E293" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B294" t="s">
+        <v>231</v>
+      </c>
+      <c r="C294" t="s">
+        <v>232</v>
+      </c>
+      <c r="D294" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E294" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>456</v>
+      </c>
+      <c r="B295" t="s">
+        <v>9</v>
+      </c>
+      <c r="C295" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>456</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D295" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E295" s="4" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B296" t="s">
+        <v>239</v>
+      </c>
+      <c r="C296" t="s">
+        <v>240</v>
+      </c>
+      <c r="D296" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E296" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B297" t="s">
+        <v>337</v>
+      </c>
+      <c r="C297" t="s">
+        <v>338</v>
+      </c>
+      <c r="D297" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E297" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B298" t="s">
+        <v>468</v>
+      </c>
+      <c r="C298" t="s">
+        <v>459</v>
+      </c>
+      <c r="D298" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E298" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B299" t="s">
+        <v>270</v>
+      </c>
+      <c r="C299" t="s">
+        <v>271</v>
+      </c>
+      <c r="D299" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E299" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B300" t="s">
+        <v>528</v>
+      </c>
+      <c r="C300" t="s">
+        <v>529</v>
+      </c>
+      <c r="D300" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E300" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B301" t="s">
+        <v>115</v>
+      </c>
+      <c r="C301" t="s">
+        <v>486</v>
+      </c>
+      <c r="D301" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E301" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B302" t="s">
+        <v>591</v>
+      </c>
+      <c r="C302" t="s">
+        <v>592</v>
+      </c>
+      <c r="D302" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E302" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B303" t="s">
+        <v>480</v>
+      </c>
+      <c r="C303" t="s">
+        <v>481</v>
+      </c>
+      <c r="D303" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E303" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B304" t="s">
+        <v>501</v>
+      </c>
+      <c r="C304" t="s">
+        <v>502</v>
+      </c>
+      <c r="D304" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E304" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="305" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B305" t="s">
+        <v>107</v>
+      </c>
+      <c r="C305" t="s">
+        <v>314</v>
+      </c>
+      <c r="D305" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E305" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="306" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B306" t="s">
+        <v>65</v>
+      </c>
+      <c r="C306" t="s">
+        <v>66</v>
+      </c>
+      <c r="D306" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E306" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="307" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B307" t="s">
+        <v>310</v>
+      </c>
+      <c r="C307" t="s">
+        <v>311</v>
+      </c>
+      <c r="D307" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E307" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="308" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B308" t="s">
+        <v>159</v>
+      </c>
+      <c r="C308" t="s">
+        <v>160</v>
+      </c>
+      <c r="D308" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E308" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="309" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B309" t="s">
+        <v>132</v>
+      </c>
+      <c r="C309" t="s">
+        <v>133</v>
+      </c>
+      <c r="D309" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E309" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="310" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B310" t="s">
+        <v>535</v>
+      </c>
+      <c r="C310" t="s">
+        <v>536</v>
+      </c>
+      <c r="D310" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E310" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="311" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B311" t="s">
+        <v>197</v>
+      </c>
+      <c r="C311" t="s">
+        <v>505</v>
+      </c>
+      <c r="D311" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E311" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="312" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B312" t="s">
+        <v>345</v>
+      </c>
+      <c r="C312" t="s">
+        <v>346</v>
+      </c>
+      <c r="D312" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E312" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="313" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B313" t="s">
+        <v>39</v>
+      </c>
+      <c r="C313" t="s">
+        <v>40</v>
+      </c>
+      <c r="D313" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E313" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="314" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B314" t="s">
+        <v>316</v>
+      </c>
+      <c r="C314" t="s">
+        <v>317</v>
+      </c>
+      <c r="D314" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E314" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="315" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B315" t="s">
+        <v>535</v>
+      </c>
+      <c r="C315" t="s">
+        <v>664</v>
+      </c>
+      <c r="D315" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E315" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="316" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B316" t="s">
+        <v>537</v>
+      </c>
+      <c r="C316" t="s">
+        <v>538</v>
+      </c>
+      <c r="D316" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E316" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="317" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B317" t="s">
+        <v>268</v>
+      </c>
+      <c r="C317" t="s">
+        <v>269</v>
+      </c>
+      <c r="D317" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E317" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="318" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B318" t="s">
+        <v>353</v>
+      </c>
+      <c r="C318" t="s">
+        <v>354</v>
+      </c>
+      <c r="D318" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E318" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="319" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B319" t="s">
+        <v>594</v>
+      </c>
+      <c r="C319" t="s">
+        <v>592</v>
+      </c>
+      <c r="D319" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E319" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="320" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B320" t="s">
+        <v>19</v>
+      </c>
+      <c r="C320" t="s">
+        <v>20</v>
+      </c>
+      <c r="D320" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E320" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="321" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B321" t="s">
+        <v>425</v>
+      </c>
+      <c r="C321" t="s">
+        <v>426</v>
+      </c>
+      <c r="D321" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E321" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="322" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B322" t="s">
+        <v>347</v>
+      </c>
+      <c r="C322" t="s">
+        <v>348</v>
+      </c>
+      <c r="D322" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E322" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="323" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B323" t="s">
+        <v>411</v>
+      </c>
+      <c r="C323" t="s">
+        <v>412</v>
+      </c>
+      <c r="D323" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E323" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="324" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B324" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>321</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C324" t="s">
+        <v>16</v>
+      </c>
+      <c r="D324" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E324" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="325" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B325" t="s">
+        <v>161</v>
+      </c>
+      <c r="C325" t="s">
+        <v>315</v>
+      </c>
+      <c r="D325" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E325" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="326" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B326" t="s">
+        <v>546</v>
+      </c>
+      <c r="C326" t="s">
+        <v>547</v>
+      </c>
+      <c r="D326" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E326" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="327" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B327" t="s">
+        <v>532</v>
+      </c>
+      <c r="C327" t="s">
+        <v>533</v>
+      </c>
+      <c r="D327" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E327" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="328" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B328" t="s">
+        <v>233</v>
+      </c>
+      <c r="C328" t="s">
+        <v>234</v>
+      </c>
+      <c r="D328" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E328" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="329" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B329" t="s">
+        <v>403</v>
+      </c>
+      <c r="C329" t="s">
+        <v>404</v>
+      </c>
+      <c r="D329" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E329" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="330" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B330" t="s">
+        <v>33</v>
+      </c>
+      <c r="C330" t="s">
+        <v>34</v>
+      </c>
+      <c r="D330" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E330" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="331" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B331" t="s">
+        <v>61</v>
+      </c>
+      <c r="C331" t="s">
+        <v>62</v>
+      </c>
+      <c r="D331" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E331" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="332" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B332" t="s">
+        <v>216</v>
+      </c>
+      <c r="C332" t="s">
+        <v>217</v>
+      </c>
+      <c r="D332" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E332" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="333" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B333" t="s">
+        <v>115</v>
+      </c>
+      <c r="C333" t="s">
+        <v>357</v>
+      </c>
+      <c r="D333" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E333" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="334" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B334" t="s">
+        <v>322</v>
+      </c>
+      <c r="C334" t="s">
+        <v>342</v>
+      </c>
+      <c r="D334" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E334" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="335" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B335" t="s">
+        <v>607</v>
+      </c>
+      <c r="C335" t="s">
+        <v>608</v>
+      </c>
+      <c r="D335" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E335" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="336" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B336" t="s">
+        <v>23</v>
+      </c>
+      <c r="C336" t="s">
+        <v>24</v>
+      </c>
+      <c r="D336" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E336" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="337" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B337" t="s">
+        <v>113</v>
+      </c>
+      <c r="C337" t="s">
+        <v>512</v>
+      </c>
+      <c r="D337" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E337" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="338" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B338" t="s">
+        <v>530</v>
+      </c>
+      <c r="C338" t="s">
+        <v>531</v>
+      </c>
+      <c r="D338" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E338" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="339" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B339" t="s">
+        <v>355</v>
+      </c>
+      <c r="C339" t="s">
+        <v>356</v>
+      </c>
+      <c r="D339" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E339" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="340" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B340" t="s">
+        <v>17</v>
+      </c>
+      <c r="C340" t="s">
+        <v>18</v>
+      </c>
+      <c r="D340" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E340" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="341" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B341" t="s">
+        <v>581</v>
+      </c>
+      <c r="C341" t="s">
+        <v>582</v>
+      </c>
+      <c r="D341" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E341" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="342" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B342" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>9</v>
+      <c r="C342" t="s">
+        <v>192</v>
+      </c>
+      <c r="D342" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E342" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="343" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B343" t="s">
+        <v>347</v>
+      </c>
+      <c r="C343" t="s">
+        <v>360</v>
+      </c>
+      <c r="D343" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E343" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="344" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B344" t="s">
+        <v>390</v>
+      </c>
+      <c r="C344" t="s">
+        <v>391</v>
+      </c>
+      <c r="D344" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E344" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="345" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B345" t="s">
+        <v>221</v>
+      </c>
+      <c r="C345" t="s">
+        <v>222</v>
+      </c>
+      <c r="D345" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E345" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="346" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B346" t="s">
+        <v>237</v>
+      </c>
+      <c r="C346" t="s">
+        <v>238</v>
+      </c>
+      <c r="D346" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E346" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="347" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B347" t="s">
+        <v>103</v>
+      </c>
+      <c r="C347" t="s">
+        <v>449</v>
+      </c>
+      <c r="D347" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E347" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="348" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B348" t="s">
+        <v>431</v>
+      </c>
+      <c r="C348" t="s">
+        <v>432</v>
+      </c>
+      <c r="D348" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E348" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="349" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B349" t="s">
+        <v>137</v>
+      </c>
+      <c r="C349" t="s">
+        <v>138</v>
+      </c>
+      <c r="D349" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E349" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="350" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B350" t="s">
+        <v>205</v>
+      </c>
+      <c r="C350" t="s">
+        <v>206</v>
+      </c>
+      <c r="D350" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E350" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="351" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B351" t="s">
+        <v>510</v>
+      </c>
+      <c r="C351" t="s">
+        <v>511</v>
+      </c>
+      <c r="D351" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E351" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="352" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B352" t="s">
+        <v>376</v>
+      </c>
+      <c r="C352" t="s">
+        <v>377</v>
+      </c>
+      <c r="D352" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E352" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="353" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B353" t="s">
+        <v>358</v>
+      </c>
+      <c r="C353" t="s">
+        <v>359</v>
+      </c>
+      <c r="D353" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E353" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="354" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B354" t="s">
+        <v>447</v>
+      </c>
+      <c r="C354" t="s">
+        <v>448</v>
+      </c>
+      <c r="D354" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E354" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="355" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B355" t="s">
+        <v>683</v>
+      </c>
+      <c r="C355" t="s">
+        <v>684</v>
+      </c>
+      <c r="D355" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E355" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="356" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B356" t="s">
+        <v>367</v>
+      </c>
+      <c r="C356" t="s">
+        <v>368</v>
+      </c>
+      <c r="D356" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E356" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="357" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B357" t="s">
+        <v>178</v>
+      </c>
+      <c r="C357" t="s">
+        <v>179</v>
+      </c>
+      <c r="D357" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E357" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="358" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B358" t="s">
+        <v>134</v>
+      </c>
+      <c r="C358" t="s">
+        <v>135</v>
+      </c>
+      <c r="D358" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E358" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="359" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B359" t="s">
+        <v>235</v>
+      </c>
+      <c r="C359" t="s">
+        <v>236</v>
+      </c>
+      <c r="D359" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E359" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="360" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B360" t="s">
+        <v>278</v>
+      </c>
+      <c r="C360" t="s">
+        <v>279</v>
+      </c>
+      <c r="D360" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E360" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="361" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B361" t="s">
+        <v>645</v>
+      </c>
+      <c r="C361" t="s">
+        <v>646</v>
+      </c>
+      <c r="D361" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E361" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="362" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B362" t="s">
+        <v>577</v>
+      </c>
+      <c r="C362" t="s">
+        <v>578</v>
+      </c>
+      <c r="D362" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E362" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="363" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B363" t="s">
+        <v>327</v>
+      </c>
+      <c r="C363" t="s">
+        <v>328</v>
+      </c>
+      <c r="D363" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E363" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="364" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B364" t="s">
+        <v>241</v>
+      </c>
+      <c r="C364" t="s">
+        <v>242</v>
+      </c>
+      <c r="D364" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E364" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="365" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B365" t="s">
+        <v>609</v>
+      </c>
+      <c r="C365" t="s">
+        <v>610</v>
+      </c>
+      <c r="D365" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E365" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="366" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B366" t="s">
+        <v>349</v>
+      </c>
+      <c r="C366" t="s">
+        <v>350</v>
+      </c>
+      <c r="D366" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E366" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="367" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B367" t="s">
+        <v>61</v>
+      </c>
+      <c r="C367" t="s">
+        <v>127</v>
+      </c>
+      <c r="D367" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E367" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="368" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B368" t="s">
+        <v>575</v>
+      </c>
+      <c r="C368" t="s">
+        <v>576</v>
+      </c>
+      <c r="D368" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E368" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="369" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B369" t="s">
+        <v>541</v>
+      </c>
+      <c r="C369" t="s">
+        <v>542</v>
+      </c>
+      <c r="D369" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E369" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="370" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B370" t="s">
+        <v>128</v>
+      </c>
+      <c r="C370" t="s">
+        <v>129</v>
+      </c>
+      <c r="D370" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E370" s="3" t="s">
+        <v>752</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:E1" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState ref="A2:E370">
+      <sortCondition ref="E1"/>
+    </sortState>
+  </autoFilter>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="E4" r:id="rId2" xr:uid="{834EC421-E264-4C87-A999-893F43D2E480}"/>
-    <hyperlink ref="E3" r:id="rId3" xr:uid="{5BE6EEC7-5619-4DD1-A624-5FAE0E9D15EE}"/>
+    <hyperlink ref="E370" r:id="rId1" xr:uid="{CDF55BB5-9F3D-4F49-9817-2E265375A813}"/>
+    <hyperlink ref="E35" r:id="rId2" xr:uid="{1294A2F7-5D46-4B5A-B9EE-ACA14F8CB8F8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Base.xlsx
+++ b/Base.xlsx
@@ -52,9 +52,6 @@
     <t>Alarcon Guzman</t>
   </si>
   <si>
-    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000005410</t>
-  </si>
-  <si>
     <t>Departamento de ingeniería civil y agrícola</t>
   </si>
   <si>
@@ -68,13 +65,16 @@
   </si>
   <si>
     <t>Embus</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8081/cvlac/visualizador/generarCurriculoCv.do?cod_rh=0000218430</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -92,6 +92,14 @@
       <b/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -146,11 +154,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -158,9 +167,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -571,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,10 +624,10 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
         <v>7</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -624,16 +635,16 @@
         <v>321</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -642,6 +653,9 @@
       <sortCondition ref="E1"/>
     </sortState>
   </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{B11CAD1C-7E9D-4E96-8B40-AA70F37FF48D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
